--- a/documentacao/Planilhas/Teste_Homologação.xlsx
+++ b/documentacao/Planilhas/Teste_Homologação.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\Desktop\PI\TechHumi\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a09039d73e6596b9/Área de Trabalho/PI/TechHumi/documentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21085768-1779-4607-9B22-07F2B5461EC4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{DBD25669-B0AB-4980-A57C-C924727D11A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F6C3C2E5-566E-4D79-A898-4DA2813A0E0E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>move0011</author>
   </authors>
   <commentList>
-    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="190">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -72,12 +72,6 @@
     <t>Condição/Iteração com sistema</t>
   </si>
   <si>
-    <t>Tester:</t>
-  </si>
-  <si>
-    <t>Data de homologação:</t>
-  </si>
-  <si>
     <t>Status – Qualidade</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>Quando Fazer?</t>
   </si>
   <si>
-    <t>Fazer Sempre</t>
-  </si>
-  <si>
     <t>Teste Unitário:</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
   </si>
   <si>
     <t>Status:</t>
-  </si>
-  <si>
-    <t>Id4</t>
   </si>
   <si>
     <t>Plano de Homologação - Teste de Aceitação</t>
@@ -208,30 +196,6 @@
     <t>Logar no sistema</t>
   </si>
   <si>
-    <t>Código do Cliente: 123</t>
-  </si>
-  <si>
-    <t>O sistema deve preencher o código com zeros a direita: "00123" e apresentar os dados do cliente: "SENHOR DAS ESTRELAS"</t>
-  </si>
-  <si>
-    <t>Código do Cliente:</t>
-  </si>
-  <si>
-    <t>Logar no sistema, clicar na opção de busca do cliente no menu principal, digitar o CÓDIGO do cliente.</t>
-  </si>
-  <si>
-    <t>Ao deixar em branco o campo e preencher, o sistema deverá fornecer um aviso que o código está em branco e não deve permitir a busca.</t>
-  </si>
-  <si>
-    <t>Id5</t>
-  </si>
-  <si>
-    <t>Id6</t>
-  </si>
-  <si>
-    <t>Id7</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -283,27 +247,6 @@
     <t>Painel de monitoramento com gráficos e indicadores de temperatura e umidade</t>
   </si>
   <si>
-    <t>RF002-01</t>
-  </si>
-  <si>
-    <t>Permitir o login no sistema utilizando email e senha</t>
-  </si>
-  <si>
-    <t>Permitir a digitação do login (email) e senha + botão (Login) para autenticar usuário no sistema.</t>
-  </si>
-  <si>
-    <t>Usuário Autenticado e direcionado para a tela XXXX</t>
-  </si>
-  <si>
-    <t>RF002-02</t>
-  </si>
-  <si>
-    <t>Consistir o campo "Login" com email válido</t>
-  </si>
-  <si>
-    <t>Permitir a digitação do login (email válido) para autenticar usuário no sistema.</t>
-  </si>
-  <si>
     <t>Consistir o campo "Senha" com dados válidos</t>
   </si>
   <si>
@@ -316,15 +259,6 @@
     <t>Validar campo senha sem erro. Se houver erro, exibir alerta para o usuário.</t>
   </si>
   <si>
-    <t xml:space="preserve">Permitir o login no sistema utilizando email e senha	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistir o campo "Login" com email válido	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consistir o campo "Senha" com dados válidos	</t>
-  </si>
-  <si>
     <t>XXXX</t>
   </si>
   <si>
@@ -337,45 +271,12 @@
     <t>Testar o login do usuário</t>
   </si>
   <si>
-    <t>Email do usuário =  brandao@gmail.com</t>
-  </si>
-  <si>
-    <t>Abrir o site www.xxx.com, selecionar a opção/menu LOGIN; digitar email do usuário no  campo Login; ir para campo Senha</t>
-  </si>
-  <si>
     <t>Permitir sair do campo Login sem mensagem de Erro</t>
   </si>
   <si>
-    <t>RF002-01-TC01</t>
-  </si>
-  <si>
-    <t>RF002-01-TC02</t>
-  </si>
-  <si>
-    <t>Email do usuário =  EmailErrado.gmail.com</t>
-  </si>
-  <si>
-    <t>Exibir a mensagem de erro "Email/Login Inválido"; voltar para campo Login</t>
-  </si>
-  <si>
-    <t>RF002-01-TC03</t>
-  </si>
-  <si>
-    <t>Email do usuário =  null/em branco</t>
-  </si>
-  <si>
-    <t>Exibir a mensagem de erro "Favor digitar email no campo Login"; voltar para campo Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUG. Não apareceu a mensagem. </t>
-  </si>
-  <si>
     <t>Entrar no Site</t>
   </si>
   <si>
-    <t>Entrar no site www.meuprojeto.com</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -385,9 +286,6 @@
     <t>Digitar um login/email válido</t>
   </si>
   <si>
-    <t>Digitar uma senha válida e clicar no botão ok/login</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
@@ -409,12 +307,6 @@
     <t>Voltar para página principal do Site</t>
   </si>
   <si>
-    <t>Nome do Analista Desenvolvedor</t>
-  </si>
-  <si>
-    <t>Nome de quem efetuará os testes/Homologação</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data da homologação : </t>
   </si>
   <si>
@@ -424,9 +316,6 @@
     <t>Em andamento</t>
   </si>
   <si>
-    <t>Não Iniciado</t>
-  </si>
-  <si>
     <t>Concluído</t>
   </si>
   <si>
@@ -482,6 +371,261 @@
   </si>
   <si>
     <t>Equipe TechHumi(dev. Team)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>Vitor Leonardo, Natalia Medina, Fernanda Esteves, Adriana Elva, Gustavo Henrique e Leticia Lago</t>
+  </si>
+  <si>
+    <t>Login =  usuario</t>
+  </si>
+  <si>
+    <t>Login =  Usuario</t>
+  </si>
+  <si>
+    <t>Usuario =  null/em branco</t>
+  </si>
+  <si>
+    <t>Testado - OK</t>
+  </si>
+  <si>
+    <t>Gráficos em tempo real na tela Usuário</t>
+  </si>
+  <si>
+    <t>Permitir observar os dados coletados da temperatura e umidade, atraves da solução</t>
+  </si>
+  <si>
+    <t>Validar se os dados estã sendo enviados de maneira correta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino </t>
+  </si>
+  <si>
+    <t>O Equipamento está funcionando de maneira eficiente</t>
+  </si>
+  <si>
+    <t>Validar se o Arduino está mandando corretamente os dados coletados.</t>
+  </si>
+  <si>
+    <t>RF001</t>
+  </si>
+  <si>
+    <t>RF002</t>
+  </si>
+  <si>
+    <t>RF003</t>
+  </si>
+  <si>
+    <t>RF004</t>
+  </si>
+  <si>
+    <t>Cadastro dos dados do arduino no banco de dados</t>
+  </si>
+  <si>
+    <t>Permitir que todos os dados coletados da solução, sejam enviados e guardados no Banco de Dados</t>
+  </si>
+  <si>
+    <t>Validar se os dados estã sendo enviados e guardados de maneira correta.</t>
+  </si>
+  <si>
+    <t>RF005</t>
+  </si>
+  <si>
+    <t>RF006</t>
+  </si>
+  <si>
+    <t>Permitir que o usuário recupere a senha através do email de cadastro</t>
+  </si>
+  <si>
+    <t>Recuperação de senha através do email de cadastro</t>
+  </si>
+  <si>
+    <t>Validar se o Usuário consegue recuperar a senha, atraves do email cadastrado</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>RNF002</t>
+  </si>
+  <si>
+    <t>RNF001</t>
+  </si>
+  <si>
+    <t>Sensor DHT11</t>
+  </si>
+  <si>
+    <t>O Sensor deve estar funcionando de maneira eficiente</t>
+  </si>
+  <si>
+    <t>Validar se o Sensor DHT11 está coletando corretamente os dados .</t>
+  </si>
+  <si>
+    <t>Não testado</t>
+  </si>
+  <si>
+    <t>Permitir o login no sistema utilizando login e senha</t>
+  </si>
+  <si>
+    <t>Permitir a digitação do login (login) e senha + botão (Login) para autenticar usuário no sistema.</t>
+  </si>
+  <si>
+    <t>Usuário Autenticado e direcionado para a tela Usuário</t>
+  </si>
+  <si>
+    <t>Consistir o campo "Login" com login válido</t>
+  </si>
+  <si>
+    <t>Permitir a digitação do login (login válido) para autenticar usuário no sistema.</t>
+  </si>
+  <si>
+    <t>Cadastro do Arduino no Banco De Dados</t>
+  </si>
+  <si>
+    <t>Ao entrar na tela usuário, verificar se os graficos estão presentes.</t>
+  </si>
+  <si>
+    <t>RF001-1</t>
+  </si>
+  <si>
+    <t>RF001-2</t>
+  </si>
+  <si>
+    <t>RF001-3</t>
+  </si>
+  <si>
+    <t>Graficos na tela de Usuário</t>
+  </si>
+  <si>
+    <t>Gráfico em tempo real na tela de Usuário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Gráfico deve se encontrar na tela de usuário </t>
+  </si>
+  <si>
+    <t>Ao entrar na tela usuário, verificar se os graficos estão com os dados encontrados pelo arduino corretamente.</t>
+  </si>
+  <si>
+    <t>Exibir a mensagem de erro "Login e/ou senha inválidos"; voltar para campo Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir o login no sistema utilizandologin e senha	</t>
+  </si>
+  <si>
+    <t>Login: usuario e Senha: usuario</t>
+  </si>
+  <si>
+    <t>Consistir o campo "Login e senha"  com dados válido	s</t>
+  </si>
+  <si>
+    <t>Através dos gráficos, visualizar os dados coletados</t>
+  </si>
+  <si>
+    <t>Ao enserir os dados validos e apertar o botão LOGIN, vamos ser direcionados para tela usuário Através dos gráficos, visualizar os dados coletados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir o login no sistema utilizando login e senha	</t>
+  </si>
+  <si>
+    <t>O Gráfico deve se encontrar na tela de usuário.</t>
+  </si>
+  <si>
+    <t>Graficos na tela de Usuário.</t>
+  </si>
+  <si>
+    <t>Ao entrar na tela usuário, verificar se tem o histórico de dados em graficos.</t>
+  </si>
+  <si>
+    <t>Verificar se os dados de temperatura e umidade estão aparecendo nos gráficos da tela Usuário</t>
+  </si>
+  <si>
+    <t>Mandar a redefinição de senha através do email</t>
+  </si>
+  <si>
+    <t>Ao não conseguir acessar a tela de usuário, por ter esquecido ou perdido a senha, redefini-lá através do email</t>
+  </si>
+  <si>
+    <t>Acesso a tela usuarios, login: usuario e senha: usuario</t>
+  </si>
+  <si>
+    <t>Atraves da tela login, aperte "Esqueceu sua senha?"</t>
+  </si>
+  <si>
+    <t>RF004-2</t>
+  </si>
+  <si>
+    <t>RF004-1</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Coletar os dados da temperatura e umidade</t>
+  </si>
+  <si>
+    <t>Atraves do arduino, ocorre a coleta de dados</t>
+  </si>
+  <si>
+    <t>O arduino deve coletar os dados da temperatura e umidade</t>
+  </si>
+  <si>
+    <t>TechHumi</t>
+  </si>
+  <si>
+    <t>000-0</t>
+  </si>
+  <si>
+    <t>O sensor DHT11 coleta os dados da temperatura e umidade</t>
+  </si>
+  <si>
+    <t>Atraves do sensor DHT11, ocorre a coleta de dados</t>
+  </si>
+  <si>
+    <t>Abrir o site http://localhost:3000/Site_usuario/Login/login.html, selecionar a opção/menu LOGIN; digitar o login do usuário no  campo Login; ir para campo Senha</t>
+  </si>
+  <si>
+    <t>Abrir o site http://localhost:3000/Site_usuario/Login/login.html, selecionar a opção/menu LOGIN; digitar O login do usuário no  campo Login; ir para campo Senha</t>
+  </si>
+  <si>
+    <t>Abrir o site http://localhost:3000/Site_usuario/Login/login.html, selecionar a opção/menu LOGIN; digitar login do usuário no  campo Login; ir para campo Senha</t>
+  </si>
+  <si>
+    <t>Abrir o site http://localhost:3000/Site_usuario/Login/login.html, selecionar a opção/menu LOGIN; digitar login e senha com dados validos</t>
+  </si>
+  <si>
+    <t>Abrir o site http://localhost:3000/Site_usuario/Login/login.html, selecionar a opção/menu LOGIN; digitar login e senha com dados validos e entrar na tela usuário para ver os graficos</t>
+  </si>
+  <si>
+    <t>Entrar no site http://localhost:3000/</t>
+  </si>
+  <si>
+    <t>Verificar se o Dashboard está recebendo os dados</t>
+  </si>
+  <si>
+    <t>Página de redefinir senha na tela usuário</t>
+  </si>
+  <si>
+    <t>Página Usuário</t>
+  </si>
+  <si>
+    <t>Verificar o Dashboard de cada ambiente</t>
+  </si>
+  <si>
+    <t>Digitar uma senha válida e clicar no botão login</t>
+  </si>
+  <si>
+    <t>Visualizar a opção de Cadastrar novo ambiente</t>
+  </si>
+  <si>
+    <t>Visualizar a opção Cadastrar novo funcionário</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Duas vezes por semana</t>
   </si>
 </sst>
 </file>
@@ -714,7 +858,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,8 +919,20 @@
         <bgColor indexed="26"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1011,6 +1167,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
@@ -1059,7 +1315,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1122,14 +1378,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1216,20 +1465,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1281,7 +1516,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1312,6 +1546,87 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,87 +1651,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1448,6 +1682,199 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1552,46 +1979,341 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1554704</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>909119</xdr:rowOff>
+      <xdr:colOff>1578429</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>833681</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4" descr="Resultado de imagem para tela de cadastro">
+        <xdr:cNvPr id="8" name="Imagem 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D44E19-A07C-4042-8378-F2667AE8DBB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2E20E6-9805-411E-A6FD-50E22AA9C2C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11634107" y="5837465"/>
+          <a:ext cx="1061358" cy="711216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1224644</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>847287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DE5032-4839-4135-81F9-D8BD8629776B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18083893" y="5851071"/>
+          <a:ext cx="1061358" cy="711216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>543271</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1510392</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>859308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801F49C9-AAC6-4A44-8275-82C3FE3F4474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13211521" y="6735536"/>
+          <a:ext cx="967121" cy="791272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585106</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1551214</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD38850-86C0-48D1-A0B6-43E63C22F8C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13253356" y="4966607"/>
+          <a:ext cx="966108" cy="653143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>585108</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1551216</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>802821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C31660E-9304-4BC4-829C-7ABE1472A5DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13253358" y="7769678"/>
+          <a:ext cx="966108" cy="653143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219421</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1186542</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>862029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AF5AC8-5C91-4CCF-9EBC-80B989FCC4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18140028" y="6738257"/>
+          <a:ext cx="967121" cy="791272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1143001</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>802822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60BEDF59-8921-4D25-956A-6BB79FA358A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18097500" y="7769679"/>
+          <a:ext cx="966108" cy="653143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5122" name="AutoShape 2" descr="blob:https://web.whatsapp.com/f56fa3aa-621c-4662-8fab-1c8fec6aa8fb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5870A2C-7C4A-4E9D-A5CC-BD20EE0A0E35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11677650" y="11477624"/>
-          <a:ext cx="1002254" cy="804345"/>
+        <a:xfrm>
+          <a:off x="12668250" y="8953500"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1607,52 +2329,39 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>129294</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>947219</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5" descr="Resultado de imagem para tela de cadastro">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5123" name="AutoShape 3" descr="blob:https://web.whatsapp.com/f56fa3aa-621c-4662-8fab-1c8fec6aa8fb">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912CB92F-ACFA-418B-A2FE-A5D0AE3FEF1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7A7011-ADCF-41F5-A594-2ABF21DA0978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="11601450" y="4872744"/>
-          <a:ext cx="1019175" cy="817925"/>
+        <a:xfrm>
+          <a:off x="12668250" y="8953500"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1667,6 +2376,622 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>258535</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1827888</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1156607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACCE1674-7C6B-40B3-842B-90EC85BC277A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12926785" y="9004402"/>
+          <a:ext cx="1569353" cy="1105705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244930</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1211036</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1024063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C811BF0B-B666-4C95-BB86-905CE255DDDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18165537" y="9121835"/>
+          <a:ext cx="966106" cy="855728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367392</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>56891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1811832</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1040511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64AF13CF-B71D-4179-96DD-9CE5D44862DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13035642" y="10275855"/>
+          <a:ext cx="1444440" cy="983620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215515</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1240333</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>929192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C320F4EB-648C-4947-8883-E57B1712A65B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18136122" y="10450286"/>
+          <a:ext cx="1024818" cy="697870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>275652</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1787068</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1132920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF45362-A945-4097-826C-1DEE3405E735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12943902" y="11375571"/>
+          <a:ext cx="1511416" cy="1064885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136073</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>225765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1075987</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>887992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagem 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466D0591-869D-4EF6-8CC2-3AD41CCD0AB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18056680" y="11533301"/>
+          <a:ext cx="939914" cy="662227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1839047</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1038049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagem 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37743642-F046-48CC-82C8-CDF74B20F474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13062857" y="12504965"/>
+          <a:ext cx="1444440" cy="983620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>385416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1145082</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>942797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagem 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E112C7-B6EE-4865-88CE-501479181DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18247178" y="12835952"/>
+          <a:ext cx="818511" cy="557381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>254803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1728869</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>869227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6579FA00-6AAF-4CF4-8A6E-90857480B8AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13035643" y="13807517"/>
+          <a:ext cx="1361476" cy="614424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>78492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1705523</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>987298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28910F21-09A7-4AF2-AD71-A8B367E88120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13103679" y="15917206"/>
+          <a:ext cx="1270094" cy="908806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>212207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1256486</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>936020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagem 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5656528D-469B-4598-9338-3B0417ADA9F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18165535" y="16050921"/>
+          <a:ext cx="1011558" cy="723813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1224644</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>775607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagem 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4296887D-9A87-4B74-B315-F34B62CA593A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18179143" y="4884964"/>
+          <a:ext cx="966108" cy="653143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>515457</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1646464</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1039022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133092A9-D2C2-428E-8FA9-41B0C86D2F68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13183707" y="14722927"/>
+          <a:ext cx="1131007" cy="1011809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220138</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1199043</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>998202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagem 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5F0879-72F3-4707-88C4-49D48410DC3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18140745" y="14818179"/>
+          <a:ext cx="978905" cy="875737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1995,10 +3320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2008,7 +3333,8 @@
     <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
     <col min="4" max="5" width="16.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="16.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="2" customWidth="1"/>
@@ -2019,779 +3345,1026 @@
     <col min="18" max="16384" width="11.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="22" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="53"/>
-    </row>
-    <row r="2" spans="1:20" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="53"/>
-    </row>
-    <row r="3" spans="1:20" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="53"/>
+    <row r="1" spans="1:20" s="21" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="47"/>
+    </row>
+    <row r="2" spans="1:20" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="47"/>
+      <c r="B2" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="47"/>
+    </row>
+    <row r="3" spans="1:20" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="47"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:20" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="26"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="61" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="24"/>
+      <c r="C5" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="24"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="100"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="24"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="100"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="100"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="24"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="127">
+        <v>43619</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="24"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="22"/>
       <c r="O11" s="3"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:20" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="72" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="81"/>
+      <c r="G12" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="27"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="25"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="75">
+      <c r="A13" s="48"/>
+      <c r="B13" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="68">
         <v>43613</v>
       </c>
-      <c r="I13" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="25"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" s="4" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="97"/>
-      <c r="G14" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="76">
+      <c r="A14" s="48"/>
+      <c r="B14" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="87"/>
+      <c r="E14" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="87"/>
+      <c r="G14" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="69">
         <v>43613</v>
       </c>
-      <c r="I14" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="27"/>
+      <c r="I14" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="25"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="75">
+      <c r="A15" s="48"/>
+      <c r="B15" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="82"/>
+      <c r="E15" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="83"/>
+      <c r="G15" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="68">
         <v>43613</v>
       </c>
-      <c r="I15" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="27"/>
+      <c r="I15" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="25"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="75">
+      <c r="A16" s="48"/>
+      <c r="B16" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="73"/>
+      <c r="G16" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="68">
         <v>43613</v>
       </c>
-      <c r="I16" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="27"/>
+      <c r="I16" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="25"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="75">
+      <c r="A17" s="48"/>
+      <c r="B17" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="73"/>
+      <c r="G17" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="68">
         <v>43613</v>
       </c>
-      <c r="I17" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="27"/>
+      <c r="I17" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="25"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="75">
+      <c r="A18" s="48"/>
+      <c r="B18" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="73"/>
+      <c r="G18" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="68">
         <v>43613</v>
       </c>
-      <c r="I18" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="27"/>
+      <c r="I18" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="25"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="99" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="100"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="75">
+      <c r="A19" s="48"/>
+      <c r="B19" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="73"/>
+      <c r="E19" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="79"/>
+      <c r="G19" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="68">
         <v>43613</v>
       </c>
-      <c r="I19" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="27"/>
+      <c r="I19" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="25"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="27"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="25"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="27"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="25"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
     <row r="22" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="90" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="85"/>
+      <c r="E23" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="85"/>
+      <c r="G23" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="85"/>
+      <c r="I23" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="91"/>
-      <c r="G23" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="J23" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
     <row r="24" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="65" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="64"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="82"/>
+      <c r="G24" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="82"/>
+      <c r="I24" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
     <row r="25" spans="1:21" s="4" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="89"/>
-      <c r="G25" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="93"/>
-      <c r="I25" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="64"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="77"/>
+      <c r="I25" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
     <row r="26" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="93"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="77"/>
+      <c r="I26" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+    <row r="27" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="48"/>
+      <c r="B27" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="77"/>
+      <c r="I27" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="24"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" spans="1:21" ht="12" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A34" s="24"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-    </row>
-    <row r="36" spans="1:12" ht="12" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
+    <row r="28" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="48"/>
+      <c r="B28" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="77"/>
+      <c r="I28" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="29" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="48"/>
+      <c r="B29" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="77"/>
+      <c r="I29" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+    </row>
+    <row r="30" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="48"/>
+      <c r="B30" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="75"/>
+      <c r="G30" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="77"/>
+      <c r="I30" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="128" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+    </row>
+    <row r="31" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="48"/>
+      <c r="B31" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="141"/>
+      <c r="E31" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="138"/>
+      <c r="G31" s="142" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="143"/>
+      <c r="I31" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+    </row>
+    <row r="32" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="48"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+    </row>
+    <row r="33" spans="1:21" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="48"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+    </row>
+    <row r="34" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="48"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="48"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+    </row>
+    <row r="36" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="22"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="22"/>
+    </row>
+    <row r="37" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="22"/>
+      <c r="B38" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="22"/>
+    </row>
+    <row r="39" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="22"/>
+    </row>
+    <row r="40" spans="1:21" ht="12" x14ac:dyDescent="0.2">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+    </row>
+    <row r="41" spans="1:21" ht="12" x14ac:dyDescent="0.2">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" spans="1:21" ht="12" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+    </row>
+    <row r="43" spans="1:21" ht="12" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" spans="1:21" ht="12" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="65">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:J27" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:J35" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24:I27" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24:I35" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Essencial, Importante, Desejável"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I20" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Não Iniciado, Em andamento, Concluído, Pendente"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2803,427 +4376,709 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="33" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="33" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="33" customWidth="1"/>
-    <col min="8" max="9" width="20.85546875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="33" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="32.28515625" style="35" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="11.7109375" style="33"/>
+    <col min="1" max="1" width="44.85546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="31" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="31" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="32.28515625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="11.7109375" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>89</v>
+      <c r="B1" s="30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="34">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="35"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="37"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="37"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="32" t="s">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="62" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="E24" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="36">
-        <v>43598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="37"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="37"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="108" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="41"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="70" t="s">
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+    </row>
+    <row r="25" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-    </row>
-    <row r="25" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-    </row>
-    <row r="26" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A26" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-    </row>
-    <row r="27" spans="1:20" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-    </row>
-    <row r="28" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-    </row>
-    <row r="29" spans="1:20" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-    </row>
-    <row r="30" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="52"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-    </row>
-    <row r="31" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="52"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-    </row>
-    <row r="32" spans="1:20" s="43" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="52"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-    </row>
-    <row r="33" spans="1:20" s="43" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="23"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-    </row>
-    <row r="34" spans="1:20" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="33" t="s">
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+    </row>
+    <row r="26" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+    </row>
+    <row r="27" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+    </row>
+    <row r="28" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="51">
-        <v>43172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="38"/>
+      <c r="B28" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+    </row>
+    <row r="29" spans="1:20" s="41" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+    </row>
+    <row r="30" spans="1:20" s="41" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="46"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+    </row>
+    <row r="31" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="46"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+    </row>
+    <row r="32" spans="1:20" s="41" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="46"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+    </row>
+    <row r="33" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+    </row>
+    <row r="34" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="145" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="146"/>
+      <c r="G34" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="147" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="148"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+    </row>
+    <row r="35" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="149" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="149" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="150" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="150" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" s="150" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="151"/>
+      <c r="G35" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="152" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="153"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+    </row>
+    <row r="36" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="115"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+    </row>
+    <row r="37" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="115"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+    </row>
+    <row r="39" spans="1:20" s="41" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+    </row>
+    <row r="40" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="129"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="116"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+    </row>
+    <row r="41" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="129"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="116"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+    </row>
+    <row r="42" spans="1:20" s="41" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="129"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="116"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+    </row>
+    <row r="43" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="129"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="116"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+    </row>
+    <row r="44" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="129"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+    </row>
+    <row r="45" spans="1:20" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="129"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="126"/>
+      <c r="I45" s="126"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
+      <c r="O45" s="113"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="154"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="154"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
+      <c r="N46" s="154"/>
+      <c r="O46" s="157"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="154"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="154"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
+      <c r="K47" s="154"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
+      <c r="N47" s="154"/>
+      <c r="O47" s="157"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="155"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="19">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H40:H45" xr:uid="{607CE71B-1C65-4C58-B190-5DA7971D07B3}">
+      <formula1>"Essencial, Importante, Desejável"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I45" xr:uid="{8A5FD536-7FA5-49DA-8427-6DFEB9460C02}">
+      <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -3240,10 +5095,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3259,21 +5114,21 @@
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68"/>
-      <c r="B2" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="111"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -3282,19 +5137,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3302,238 +5157,311 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="21"/>
+        <v>189</v>
+      </c>
+      <c r="F6" s="158" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="19">
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="21"/>
+        <v>189</v>
+      </c>
+      <c r="F7" s="158" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="19">
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="21"/>
+        <v>189</v>
+      </c>
+      <c r="F8" s="158" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="19">
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="21"/>
+        <v>189</v>
+      </c>
+      <c r="F9" s="158" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="19">
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="21"/>
+        <v>189</v>
+      </c>
+      <c r="F10" s="158" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="19">
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="21"/>
+        <v>189</v>
+      </c>
+      <c r="F11" s="158" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="19">
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="21"/>
+        <v>189</v>
+      </c>
+      <c r="F12" s="158" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="19">
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="E13" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="19">
+        <v>9</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="19">
+        <v>10</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="19">
+        <v>11</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="158" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="19">
         <v>12</v>
       </c>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
+      <c r="C17" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="158" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
+      <c r="B18" s="19">
+        <v>13</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="158" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="15"/>
+      <c r="B22" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="109"/>
+      <c r="C23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
+      <c r="D23" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="116"/>
-      <c r="C24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="161"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="161"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="159"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="161"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="161"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="12"/>
@@ -3619,14 +5547,56 @@
       <c r="D47" s="12"/>
       <c r="E47" s="13"/>
     </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentacao/Planilhas/Teste_Homologação.xlsx
+++ b/documentacao/Planilhas/Teste_Homologação.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a09039d73e6596b9/Área de Trabalho/PI/TechHumi/documentacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\OneDrive\Área de Trabalho\PI\TechHumi\documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DBD25669-B0AB-4980-A57C-C924727D11A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F6C3C2E5-566E-4D79-A898-4DA2813A0E0E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{DBD25669-B0AB-4980-A57C-C924727D11A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{85639AD4-3C2F-4EE7-8C99-EEC6C98BEE0F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="189">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>Local Git</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
   </si>
   <si>
     <t>Concluído</t>
@@ -1554,134 +1551,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1706,47 +1575,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1755,57 +1594,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="33" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1875,6 +1672,206 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3322,8 +3319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3361,13 +3358,13 @@
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="95"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
@@ -3377,11 +3374,11 @@
     </row>
     <row r="3" spans="1:20" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
@@ -3408,10 +3405,10 @@
       <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="100"/>
+      <c r="C5" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="112"/>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
       <c r="G5" s="26"/>
@@ -3426,10 +3423,10 @@
       <c r="B6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="100"/>
+      <c r="C6" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="112"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
@@ -3444,10 +3441,10 @@
       <c r="B7" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="100"/>
+      <c r="C7" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="112"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="26"/>
@@ -3462,10 +3459,10 @@
       <c r="B8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="100"/>
+      <c r="C8" s="111" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="112"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="26"/>
@@ -3480,10 +3477,10 @@
       <c r="B9" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="116">
         <v>43619</v>
       </c>
-      <c r="D9" s="100"/>
+      <c r="D9" s="112"/>
       <c r="E9" s="26"/>
       <c r="F9" s="27"/>
       <c r="G9" s="26"/>
@@ -3509,16 +3506,16 @@
     </row>
     <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="22"/>
@@ -3530,14 +3527,14 @@
       <c r="B12" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="80" t="s">
+      <c r="D12" s="137"/>
+      <c r="E12" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="81"/>
+      <c r="F12" s="137"/>
       <c r="G12" s="65" t="s">
         <v>21</v>
       </c>
@@ -3560,16 +3557,16 @@
       <c r="B13" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="72" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="82"/>
+      <c r="F13" s="115"/>
       <c r="G13" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="68">
         <v>43613</v>
@@ -3590,16 +3587,16 @@
       <c r="B14" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="86" t="s">
+      <c r="D14" s="127"/>
+      <c r="E14" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="87"/>
+      <c r="F14" s="127"/>
       <c r="G14" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="69">
         <v>43613</v>
@@ -3620,16 +3617,16 @@
       <c r="B15" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="72" t="s">
+      <c r="D15" s="115"/>
+      <c r="E15" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="83"/>
+      <c r="F15" s="138"/>
       <c r="G15" s="58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="68">
         <v>43613</v>
@@ -3650,22 +3647,22 @@
       <c r="B16" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="73"/>
+      <c r="C16" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="114"/>
+      <c r="E16" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="114"/>
       <c r="G16" s="58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" s="68">
         <v>43613</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
@@ -3678,24 +3675,24 @@
     <row r="17" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="D17" s="114"/>
+      <c r="E17" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="114"/>
+      <c r="G17" s="58" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="58" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="68">
         <v>43613</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" s="56"/>
       <c r="K17" s="56"/>
@@ -3708,24 +3705,24 @@
     <row r="18" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="D18" s="114"/>
+      <c r="E18" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="73"/>
+      <c r="F18" s="114"/>
       <c r="G18" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H18" s="68">
         <v>43613</v>
       </c>
       <c r="I18" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
@@ -3738,18 +3735,18 @@
     <row r="19" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="D19" s="114"/>
+      <c r="E19" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="79"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H19" s="68">
         <v>43613</v>
@@ -3768,12 +3765,12 @@
     <row r="20" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="57"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="83"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
@@ -3805,17 +3802,17 @@
     </row>
     <row r="22" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
@@ -3824,18 +3821,18 @@
       <c r="B23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="84" t="s">
+      <c r="D23" s="120"/>
+      <c r="E23" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="84" t="s">
+      <c r="F23" s="120"/>
+      <c r="G23" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="85"/>
+      <c r="H23" s="120"/>
       <c r="I23" s="64" t="s">
         <v>23</v>
       </c>
@@ -3852,25 +3849,25 @@
     <row r="24" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="115"/>
+      <c r="E24" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="72" t="s">
+      <c r="F24" s="115"/>
+      <c r="G24" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" s="82"/>
+      <c r="H24" s="115"/>
       <c r="I24" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
@@ -3882,25 +3879,25 @@
     <row r="25" spans="1:21" s="4" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="113" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="114"/>
+      <c r="E25" s="132" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76" t="s">
+      <c r="F25" s="133"/>
+      <c r="G25" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="77"/>
+      <c r="H25" s="135"/>
       <c r="I25" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -3912,25 +3909,25 @@
     <row r="26" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="74" t="s">
+      <c r="D26" s="114"/>
+      <c r="E26" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76" t="s">
+      <c r="F26" s="133"/>
+      <c r="G26" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="77"/>
+      <c r="H26" s="135"/>
       <c r="I26" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -3942,25 +3939,25 @@
     <row r="27" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="D27" s="114"/>
+      <c r="E27" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74" t="s">
+      <c r="F27" s="133"/>
+      <c r="G27" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" s="77"/>
+      <c r="H27" s="135"/>
       <c r="I27" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -3972,25 +3969,25 @@
     <row r="28" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="114"/>
+      <c r="E28" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="74" t="s">
+      <c r="F28" s="133"/>
+      <c r="G28" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="77"/>
+      <c r="H28" s="135"/>
       <c r="I28" s="70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -4002,25 +3999,25 @@
     <row r="29" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="114"/>
+      <c r="E29" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="F29" s="133"/>
+      <c r="G29" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76" t="s">
+      <c r="H29" s="135"/>
+      <c r="I29" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="77"/>
-      <c r="I29" s="70" t="s">
-        <v>129</v>
-      </c>
       <c r="J29" s="58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -4032,25 +4029,25 @@
     <row r="30" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="114"/>
+      <c r="E30" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74" t="s">
+      <c r="F30" s="133"/>
+      <c r="G30" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="77"/>
+      <c r="H30" s="135"/>
       <c r="I30" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30" s="128" t="s">
-        <v>110</v>
+        <v>86</v>
+      </c>
+      <c r="J30" s="81" t="s">
+        <v>109</v>
       </c>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
@@ -4062,25 +4059,25 @@
     <row r="31" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="85"/>
+      <c r="E31" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="141"/>
-      <c r="E31" s="137" t="s">
+      <c r="F31" s="140"/>
+      <c r="G31" s="141" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="138"/>
-      <c r="G31" s="142" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" s="143"/>
+      <c r="H31" s="142"/>
       <c r="I31" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J31" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -4091,15 +4088,15 @@
     </row>
     <row r="32" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="126"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="80"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="R32" s="5"/>
@@ -4109,15 +4106,15 @@
     </row>
     <row r="33" spans="1:21" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
       <c r="R33" s="5"/>
@@ -4127,15 +4124,15 @@
     </row>
     <row r="34" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="126"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
       <c r="R34" s="5"/>
@@ -4145,15 +4142,15 @@
     </row>
     <row r="35" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="123"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="130"/>
-      <c r="E35" s="123"/>
+      <c r="E35" s="129"/>
       <c r="F35" s="131"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="R35" s="5"/>
@@ -4193,7 +4190,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="27"/>
@@ -4291,24 +4288,28 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
@@ -4325,6 +4326,14 @@
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="E12:F12"/>
@@ -4333,29 +4342,17 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:J35" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4378,7 +4375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4423,7 +4420,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4486,10 +4483,10 @@
       <c r="A15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="101"/>
+      <c r="C15" s="152"/>
       <c r="D15" s="39"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -4547,16 +4544,16 @@
     </row>
     <row r="25" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="43" t="s">
         <v>71</v>
@@ -4578,19 +4575,19 @@
     </row>
     <row r="26" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="45" t="s">
@@ -4609,19 +4606,19 @@
     </row>
     <row r="27" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="45" t="s">
@@ -4640,19 +4637,19 @@
     </row>
     <row r="28" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="45" t="s">
@@ -4671,19 +4668,19 @@
     </row>
     <row r="29" spans="1:20" s="41" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="45" t="s">
@@ -4702,19 +4699,19 @@
     </row>
     <row r="30" spans="1:20" s="41" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="45" t="s">
@@ -4731,19 +4728,19 @@
     </row>
     <row r="31" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="45" t="s">
@@ -4760,19 +4757,19 @@
     </row>
     <row r="32" spans="1:20" s="41" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="45" t="s">
@@ -4789,19 +4786,19 @@
     </row>
     <row r="33" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="43" t="s">
         <v>161</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>162</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="45" t="s">
@@ -4819,88 +4816,88 @@
       <c r="T33" s="42"/>
     </row>
     <row r="34" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="144" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="144" t="s">
+      <c r="A34" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="145" t="s">
+      <c r="D34" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="145" t="s">
+      <c r="E34" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="145" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34" s="146"/>
-      <c r="G34" s="147" t="s">
+      <c r="F34" s="88"/>
+      <c r="G34" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="147" t="s">
+      <c r="H34" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="148"/>
+      <c r="I34" s="90"/>
       <c r="Q34" s="42"/>
       <c r="R34" s="42"/>
       <c r="S34" s="42"/>
       <c r="T34" s="42"/>
     </row>
     <row r="35" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="149" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="149" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="150" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="150" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" s="150" t="s">
+      <c r="A35" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="F35" s="151"/>
-      <c r="G35" s="152" t="s">
+      <c r="E35" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="F35" s="93"/>
+      <c r="G35" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="152" t="s">
+      <c r="H35" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="153"/>
+      <c r="I35" s="95"/>
       <c r="Q35" s="42"/>
       <c r="R35" s="42"/>
       <c r="S35" s="42"/>
       <c r="T35" s="42"/>
     </row>
     <row r="36" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="115"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="76"/>
       <c r="Q36" s="42"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
     </row>
     <row r="37" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="115"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="76"/>
       <c r="Q37" s="42"/>
       <c r="R37" s="42"/>
       <c r="S37" s="42"/>
@@ -4913,156 +4910,144 @@
       <c r="T39" s="42"/>
     </row>
     <row r="40" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="129"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="116"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="77"/>
       <c r="Q40" s="42"/>
       <c r="R40" s="42"/>
       <c r="S40" s="42"/>
       <c r="T40" s="42"/>
     </row>
     <row r="41" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="129"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="116"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="77"/>
       <c r="Q41" s="42"/>
       <c r="R41" s="42"/>
       <c r="S41" s="42"/>
       <c r="T41" s="42"/>
     </row>
     <row r="42" spans="1:20" s="41" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="129"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="122"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="116"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="77"/>
       <c r="Q42" s="42"/>
       <c r="R42" s="42"/>
       <c r="S42" s="42"/>
       <c r="T42" s="42"/>
     </row>
     <row r="43" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="129"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="116"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="77"/>
       <c r="Q43" s="42"/>
       <c r="R43" s="42"/>
       <c r="S43" s="42"/>
       <c r="T43" s="42"/>
     </row>
     <row r="44" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="129"/>
-      <c r="B44" s="123"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
       <c r="Q44" s="42"/>
       <c r="R44" s="42"/>
       <c r="S44" s="42"/>
       <c r="T44" s="42"/>
     </row>
     <row r="45" spans="1:20" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="129"/>
-      <c r="B45" s="123"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
       <c r="Q45" s="42"/>
       <c r="R45" s="42"/>
       <c r="S45" s="42"/>
       <c r="T45" s="42"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="154"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="154"/>
-      <c r="K46" s="154"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="154"/>
-      <c r="N46" s="154"/>
-      <c r="O46" s="157"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="99"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="154"/>
-      <c r="B47" s="154"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="154"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="154"/>
-      <c r="H47" s="154"/>
-      <c r="I47" s="154"/>
-      <c r="J47" s="154"/>
-      <c r="K47" s="154"/>
-      <c r="L47" s="154"/>
-      <c r="M47" s="154"/>
-      <c r="N47" s="154"/>
-      <c r="O47" s="157"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="99"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="155"/>
+      <c r="A48" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
@@ -5070,6 +5055,18 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H40:H45" xr:uid="{607CE71B-1C65-4C58-B190-5DA7971D07B3}">
@@ -5114,21 +5111,21 @@
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="162"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="159"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -5160,12 +5157,12 @@
         <v>72</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5180,9 +5177,9 @@
         <v>74</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5197,9 +5194,9 @@
         <v>75</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5211,12 +5208,12 @@
         <v>73</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5231,9 +5228,9 @@
         <v>77</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5248,9 +5245,9 @@
         <v>78</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5262,12 +5259,12 @@
         <v>76</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5279,12 +5276,12 @@
         <v>76</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F13" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5293,15 +5290,15 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5310,15 +5307,15 @@
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F15" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5327,15 +5324,15 @@
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5350,9 +5347,9 @@
         <v>80</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="100" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5367,21 +5364,21 @@
         <v>82</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F18" s="100" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="159"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="159"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -5395,62 +5392,62 @@
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="161" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
+      <c r="D22" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="109"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
+      <c r="D23" s="162" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="159"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="159"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="161"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="103"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="159"/>
-      <c r="C25" s="159"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="161"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="103"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="161"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="161"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="103"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">

--- a/documentacao/Planilhas/Teste_Homologação.xlsx
+++ b/documentacao/Planilhas/Teste_Homologação.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\OneDrive\Área de Trabalho\PI\TechHumi\documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{DBD25669-B0AB-4980-A57C-C924727D11A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{85639AD4-3C2F-4EE7-8C99-EEC6C98BEE0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB907EAB-D118-483D-8A8E-F4D49993E41F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -1312,7 +1312,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1672,6 +1672,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1708,7 +1731,64 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1718,35 +1798,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1759,31 +1810,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2380,15 +2406,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>258535</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>50902</xdr:rowOff>
+      <xdr:rowOff>230275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1827888</xdr:colOff>
+      <xdr:colOff>1716763</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>1156607</xdr:rowOff>
+      <xdr:rowOff>1093107</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2411,8 +2437,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12926785" y="9004402"/>
-          <a:ext cx="1569353" cy="1105705"/>
+          <a:off x="13160375" y="10009275"/>
+          <a:ext cx="1224638" cy="862832"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2468,15 +2494,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>367392</xdr:colOff>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>56891</xdr:rowOff>
+      <xdr:rowOff>62840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1811832</xdr:colOff>
+      <xdr:colOff>1526081</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>1040511</xdr:rowOff>
+      <xdr:rowOff>691260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2499,8 +2525,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13035642" y="10275855"/>
-          <a:ext cx="1444440" cy="983620"/>
+          <a:off x="13271500" y="11318215"/>
+          <a:ext cx="922831" cy="628420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2514,13 +2540,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>215515</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>231322</xdr:rowOff>
+      <xdr:rowOff>78922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1240333</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>929192</xdr:rowOff>
+      <xdr:rowOff>779967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2543,8 +2569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18136122" y="10450286"/>
-          <a:ext cx="1024818" cy="697870"/>
+          <a:off x="18160615" y="11356522"/>
+          <a:ext cx="1024818" cy="701045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2556,15 +2582,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>275652</xdr:colOff>
+      <xdr:colOff>384941</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1787068</xdr:colOff>
+      <xdr:colOff>1564817</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1132920</xdr:rowOff>
+      <xdr:rowOff>990045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2587,8 +2613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12943902" y="11375571"/>
-          <a:ext cx="1511416" cy="1064885"/>
+          <a:off x="13053191" y="12366625"/>
+          <a:ext cx="1179876" cy="831295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2600,15 +2626,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>136073</xdr:colOff>
+      <xdr:colOff>183698</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>225765</xdr:rowOff>
+      <xdr:rowOff>194015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1075987</xdr:colOff>
+      <xdr:colOff>1123612</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>887992</xdr:rowOff>
+      <xdr:rowOff>856242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2631,7 +2657,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18056680" y="11533301"/>
+          <a:off x="18106573" y="12401890"/>
           <a:ext cx="939914" cy="662227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3319,19 +3345,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25" style="2" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
     <col min="4" max="5" width="16.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="2" customWidth="1"/>
@@ -3358,13 +3386,13 @@
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
@@ -3374,11 +3402,11 @@
     </row>
     <row r="3" spans="1:20" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
@@ -3405,10 +3433,10 @@
       <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="112"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
       <c r="G5" s="26"/>
@@ -3423,10 +3451,10 @@
       <c r="B6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="112"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
@@ -3441,10 +3469,10 @@
       <c r="B7" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="118"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="26"/>
@@ -3459,10 +3487,10 @@
       <c r="B8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="112"/>
+      <c r="D8" s="118"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="26"/>
@@ -3472,25 +3500,26 @@
       <c r="K8" s="26"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="55" t="s">
+    <row r="9" spans="1:20" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="106"/>
+      <c r="B9" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="116">
+      <c r="C9" s="122">
         <v>43619</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="22"/>
-    </row>
-    <row r="10" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="D9" s="123"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="106"/>
+      <c r="P9" s="110"/>
+    </row>
+    <row r="10" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -3504,37 +3533,37 @@
       <c r="K10" s="26"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="22"/>
       <c r="O11" s="3"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:20" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="4" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
       <c r="B12" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="136" t="s">
+      <c r="D12" s="129"/>
+      <c r="E12" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="137"/>
+      <c r="F12" s="129"/>
       <c r="G12" s="65" t="s">
         <v>21</v>
       </c>
@@ -3557,14 +3586,14 @@
       <c r="B13" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="113" t="s">
+      <c r="D13" s="121"/>
+      <c r="E13" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="115"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="58" t="s">
         <v>87</v>
       </c>
@@ -3587,14 +3616,14 @@
       <c r="B14" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="126" t="s">
+      <c r="D14" s="133"/>
+      <c r="E14" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="127"/>
+      <c r="F14" s="133"/>
       <c r="G14" s="67" t="s">
         <v>88</v>
       </c>
@@ -3617,14 +3646,14 @@
       <c r="B15" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="113" t="s">
+      <c r="D15" s="121"/>
+      <c r="E15" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="138"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="58" t="s">
         <v>89</v>
       </c>
@@ -3647,14 +3676,14 @@
       <c r="B16" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="113" t="s">
+      <c r="D16" s="120"/>
+      <c r="E16" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="114"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="58" t="s">
         <v>96</v>
       </c>
@@ -3677,14 +3706,14 @@
       <c r="B17" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="113" t="s">
+      <c r="D17" s="120"/>
+      <c r="E17" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="114"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="58" t="s">
         <v>95</v>
       </c>
@@ -3707,14 +3736,14 @@
       <c r="B18" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="119" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="113" t="s">
+      <c r="D18" s="120"/>
+      <c r="E18" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="114"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="58" t="s">
         <v>88</v>
       </c>
@@ -3737,14 +3766,14 @@
       <c r="B19" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="117" t="s">
+      <c r="D19" s="120"/>
+      <c r="E19" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="118"/>
+      <c r="F19" s="141"/>
       <c r="G19" s="58" t="s">
         <v>105</v>
       </c>
@@ -3765,10 +3794,10 @@
     <row r="20" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="57"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="138"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="58" t="s">
         <v>104</v>
       </c>
@@ -3802,17 +3831,17 @@
     </row>
     <row r="22" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
@@ -3821,18 +3850,18 @@
       <c r="B23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="120"/>
-      <c r="E23" s="119" t="s">
+      <c r="D23" s="131"/>
+      <c r="E23" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="120"/>
-      <c r="G23" s="119" t="s">
+      <c r="F23" s="131"/>
+      <c r="G23" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="120"/>
+      <c r="H23" s="131"/>
       <c r="I23" s="64" t="s">
         <v>23</v>
       </c>
@@ -3846,23 +3875,23 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="1:21" s="4" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="113" t="s">
+      <c r="C24" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="115"/>
-      <c r="E24" s="113" t="s">
+      <c r="D24" s="121"/>
+      <c r="E24" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="115"/>
-      <c r="G24" s="113" t="s">
+      <c r="F24" s="121"/>
+      <c r="G24" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="115"/>
+      <c r="H24" s="121"/>
       <c r="I24" s="59" t="s">
         <v>86</v>
       </c>
@@ -3876,23 +3905,23 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="1:21" s="4" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C25" s="119" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="132" t="s">
+      <c r="D25" s="120"/>
+      <c r="E25" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="133"/>
-      <c r="G25" s="134" t="s">
+      <c r="F25" s="137"/>
+      <c r="G25" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="135"/>
+      <c r="H25" s="139"/>
       <c r="I25" s="60" t="s">
         <v>86</v>
       </c>
@@ -3906,23 +3935,23 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="132" t="s">
+      <c r="D26" s="120"/>
+      <c r="E26" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="133"/>
-      <c r="G26" s="134" t="s">
+      <c r="F26" s="137"/>
+      <c r="G26" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="135"/>
+      <c r="H26" s="139"/>
       <c r="I26" s="60" t="s">
         <v>86</v>
       </c>
@@ -3936,23 +3965,23 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="132" t="s">
+      <c r="D27" s="120"/>
+      <c r="E27" s="136" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="133"/>
-      <c r="G27" s="134" t="s">
+      <c r="F27" s="137"/>
+      <c r="G27" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="135"/>
+      <c r="H27" s="139"/>
       <c r="I27" s="70" t="s">
         <v>86</v>
       </c>
@@ -3966,23 +3995,23 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="119" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="132" t="s">
+      <c r="D28" s="120"/>
+      <c r="E28" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="133"/>
-      <c r="G28" s="134" t="s">
+      <c r="F28" s="137"/>
+      <c r="G28" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="135"/>
+      <c r="H28" s="139"/>
       <c r="I28" s="70" t="s">
         <v>86</v>
       </c>
@@ -3996,23 +4025,23 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
       <c r="B29" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="132" t="s">
+      <c r="D29" s="120"/>
+      <c r="E29" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="133"/>
-      <c r="G29" s="134" t="s">
+      <c r="F29" s="137"/>
+      <c r="G29" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="135"/>
+      <c r="H29" s="139"/>
       <c r="I29" s="70" t="s">
         <v>128</v>
       </c>
@@ -4026,23 +4055,23 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="4" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="132" t="s">
+      <c r="D30" s="120"/>
+      <c r="E30" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="133"/>
-      <c r="G30" s="134" t="s">
+      <c r="F30" s="137"/>
+      <c r="G30" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="135"/>
+      <c r="H30" s="139"/>
       <c r="I30" s="58" t="s">
         <v>86</v>
       </c>
@@ -4056,7 +4085,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:21" s="4" customFormat="1" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="4" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="57" t="s">
         <v>129</v>
@@ -4065,14 +4094,14 @@
         <v>131</v>
       </c>
       <c r="D31" s="85"/>
-      <c r="E31" s="139" t="s">
+      <c r="E31" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="140"/>
-      <c r="G31" s="141" t="s">
+      <c r="F31" s="147"/>
+      <c r="G31" s="148" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="142"/>
+      <c r="H31" s="149"/>
       <c r="I31" s="58" t="s">
         <v>86</v>
       </c>
@@ -4089,12 +4118,12 @@
     <row r="32" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="83"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
       <c r="I32" s="84"/>
       <c r="J32" s="80"/>
       <c r="K32" s="25"/>
@@ -4107,12 +4136,12 @@
     <row r="33" spans="1:21" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="82"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
       <c r="I33" s="80"/>
       <c r="J33" s="80"/>
       <c r="K33" s="25"/>
@@ -4125,12 +4154,12 @@
     <row r="34" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="82"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
       <c r="I34" s="80"/>
       <c r="J34" s="80"/>
       <c r="K34" s="25"/>
@@ -4143,12 +4172,12 @@
     <row r="35" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="82"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
       <c r="I35" s="80"/>
       <c r="J35" s="80"/>
       <c r="K35" s="25"/>
@@ -4299,17 +4328,10 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
@@ -4322,26 +4344,28 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B22:J22"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="C5:D5"/>
@@ -4353,6 +4377,11 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:J35" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4375,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4483,10 +4512,10 @@
       <c r="A15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="152"/>
+      <c r="C15" s="159"/>
       <c r="D15" s="39"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -4542,7 +4571,7 @@
       <c r="S24" s="42"/>
       <c r="T24" s="42"/>
     </row>
-    <row r="25" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="41" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>142</v>
       </c>
@@ -4573,7 +4602,7 @@
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
     </row>
-    <row r="26" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="41" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>143</v>
       </c>
@@ -4635,7 +4664,7 @@
       <c r="S27" s="42"/>
       <c r="T27" s="42"/>
     </row>
-    <row r="28" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
         <v>117</v>
       </c>
@@ -4666,7 +4695,7 @@
       <c r="S28" s="42"/>
       <c r="T28" s="42"/>
     </row>
-    <row r="29" spans="1:20" s="41" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="41" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>118</v>
       </c>
@@ -4697,7 +4726,7 @@
       <c r="S29" s="42"/>
       <c r="T29" s="42"/>
     </row>
-    <row r="30" spans="1:20" s="41" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="41" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
         <v>165</v>
       </c>
@@ -4911,12 +4940,12 @@
     </row>
     <row r="40" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="82"/>
-      <c r="B40" s="149"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="153"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="160"/>
       <c r="H40" s="78"/>
       <c r="I40" s="79"/>
       <c r="J40" s="77"/>
@@ -4927,12 +4956,12 @@
     </row>
     <row r="41" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="82"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
       <c r="H41" s="79"/>
       <c r="I41" s="79"/>
       <c r="J41" s="77"/>
@@ -4943,12 +4972,12 @@
     </row>
     <row r="42" spans="1:20" s="41" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="82"/>
-      <c r="B42" s="149"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
       <c r="H42" s="79"/>
       <c r="I42" s="79"/>
       <c r="J42" s="77"/>
@@ -4959,12 +4988,12 @@
     </row>
     <row r="43" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="82"/>
-      <c r="B43" s="149"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
       <c r="H43" s="79"/>
       <c r="I43" s="79"/>
       <c r="J43" s="77"/>
@@ -4975,12 +5004,12 @@
     </row>
     <row r="44" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="82"/>
-      <c r="B44" s="129"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
       <c r="H44" s="80"/>
       <c r="I44" s="80"/>
       <c r="Q44" s="42"/>
@@ -4990,12 +5019,12 @@
     </row>
     <row r="45" spans="1:20" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="82"/>
-      <c r="B45" s="129"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="154"/>
       <c r="H45" s="80"/>
       <c r="I45" s="80"/>
       <c r="J45" s="74"/>
@@ -5094,8 +5123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5112,20 +5141,20 @@
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="104"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="163"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="159"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="166"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -5392,28 +5421,28 @@
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="168" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="162" t="s">
+      <c r="D22" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="161"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="162" t="s">
+      <c r="D23" s="169" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="101"/>
@@ -5445,9 +5474,9 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">

--- a/documentacao/Planilhas/Teste_Homologação.xlsx
+++ b/documentacao/Planilhas/Teste_Homologação.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\OneDrive\Área de Trabalho\PI\TechHumi\documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB907EAB-D118-483D-8A8E-F4D49993E41F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40F6E61-3DC5-49FD-8666-C0804E7CC615}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1312,7 +1312,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1626,26 +1626,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1695,6 +1675,116 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,26 +1809,12 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1748,18 +1824,6 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1768,94 +1832,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1863,13 +1850,6 @@
     <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2801,94 +2781,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>78492</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1705523</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>987298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagem 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28910F21-09A7-4AF2-AD71-A8B367E88120}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13103679" y="15917206"/>
-          <a:ext cx="1270094" cy="908806"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>212207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1256486</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>936020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Imagem 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5656528D-469B-4598-9338-3B0417ADA9F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18165535" y="16050921"/>
-          <a:ext cx="1011558" cy="723813"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>258536</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -2958,7 +2850,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3002,7 +2894,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3011,6 +2903,94 @@
         <a:xfrm>
           <a:off x="18140745" y="14818179"/>
           <a:ext cx="978905" cy="875737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1531057</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1049909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagem 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B55E9EF-4CAB-4C39-BE7F-FE752CA01394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13068300" y="16725900"/>
+          <a:ext cx="1131007" cy="1011809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1264357</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1049909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagem 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E03C59-A498-431C-9655-ADE1D87D5B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18078450" y="16725900"/>
+          <a:ext cx="1131007" cy="1011809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3386,13 +3366,13 @@
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
@@ -3402,11 +3382,11 @@
     </row>
     <row r="3" spans="1:20" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
@@ -3433,10 +3413,10 @@
       <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
       <c r="G5" s="26"/>
@@ -3451,10 +3431,10 @@
       <c r="B6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="142" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="118"/>
+      <c r="D6" s="143"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
@@ -3469,10 +3449,10 @@
       <c r="B7" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="118"/>
+      <c r="D7" s="143"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="26"/>
@@ -3487,10 +3467,10 @@
       <c r="B8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="118"/>
+      <c r="D8" s="143"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="26"/>
@@ -3500,24 +3480,24 @@
       <c r="K8" s="26"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:20" s="109" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="106"/>
-      <c r="B9" s="105" t="s">
+    <row r="9" spans="1:20" s="104" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="101"/>
+      <c r="B9" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="122">
+      <c r="C9" s="144">
         <v>43619</v>
       </c>
-      <c r="D9" s="123"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="106"/>
-      <c r="P9" s="110"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="101"/>
+      <c r="P9" s="105"/>
     </row>
     <row r="10" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
@@ -3535,16 +3515,16 @@
     </row>
     <row r="11" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="148"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="22"/>
@@ -3556,14 +3536,14 @@
       <c r="B12" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="129"/>
-      <c r="E12" s="128" t="s">
+      <c r="D12" s="118"/>
+      <c r="E12" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="129"/>
+      <c r="F12" s="118"/>
       <c r="G12" s="65" t="s">
         <v>21</v>
       </c>
@@ -3586,14 +3566,14 @@
       <c r="B13" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="119" t="s">
+      <c r="D13" s="126"/>
+      <c r="E13" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="121"/>
+      <c r="F13" s="126"/>
       <c r="G13" s="58" t="s">
         <v>87</v>
       </c>
@@ -3616,14 +3596,14 @@
       <c r="B14" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="133"/>
-      <c r="E14" s="132" t="s">
+      <c r="D14" s="150"/>
+      <c r="E14" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="133"/>
+      <c r="F14" s="150"/>
       <c r="G14" s="67" t="s">
         <v>88</v>
       </c>
@@ -3646,14 +3626,14 @@
       <c r="B15" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="121"/>
-      <c r="E15" s="119" t="s">
+      <c r="D15" s="126"/>
+      <c r="E15" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="124"/>
+      <c r="F15" s="133"/>
       <c r="G15" s="58" t="s">
         <v>89</v>
       </c>
@@ -3676,14 +3656,14 @@
       <c r="B16" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="119" t="s">
+      <c r="D16" s="124"/>
+      <c r="E16" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="120"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="58" t="s">
         <v>96</v>
       </c>
@@ -3706,14 +3686,14 @@
       <c r="B17" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="120"/>
-      <c r="E17" s="119" t="s">
+      <c r="D17" s="124"/>
+      <c r="E17" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="120"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="58" t="s">
         <v>95</v>
       </c>
@@ -3736,14 +3716,14 @@
       <c r="B18" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="119" t="s">
+      <c r="D18" s="124"/>
+      <c r="E18" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="120"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="58" t="s">
         <v>88</v>
       </c>
@@ -3766,14 +3746,14 @@
       <c r="B19" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="140" t="s">
+      <c r="D19" s="124"/>
+      <c r="E19" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="141"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="58" t="s">
         <v>105</v>
       </c>
@@ -3794,10 +3774,10 @@
     <row r="20" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="57"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="124"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="133"/>
       <c r="G20" s="58" t="s">
         <v>104</v>
       </c>
@@ -3850,18 +3830,18 @@
       <c r="B23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="130" t="s">
+      <c r="D23" s="122"/>
+      <c r="E23" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="131"/>
-      <c r="G23" s="130" t="s">
+      <c r="F23" s="122"/>
+      <c r="G23" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="131"/>
+      <c r="H23" s="122"/>
       <c r="I23" s="64" t="s">
         <v>23</v>
       </c>
@@ -3880,18 +3860,18 @@
       <c r="B24" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="121"/>
-      <c r="E24" s="119" t="s">
+      <c r="D24" s="126"/>
+      <c r="E24" s="123" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="121"/>
-      <c r="G24" s="119" t="s">
+      <c r="F24" s="126"/>
+      <c r="G24" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="121"/>
+      <c r="H24" s="126"/>
       <c r="I24" s="59" t="s">
         <v>86</v>
       </c>
@@ -3910,18 +3890,18 @@
       <c r="B25" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="119" t="s">
+      <c r="C25" s="123" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="120"/>
-      <c r="E25" s="136" t="s">
+      <c r="D25" s="124"/>
+      <c r="E25" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="137"/>
-      <c r="G25" s="138" t="s">
+      <c r="F25" s="130"/>
+      <c r="G25" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="139"/>
+      <c r="H25" s="132"/>
       <c r="I25" s="60" t="s">
         <v>86</v>
       </c>
@@ -3940,18 +3920,18 @@
       <c r="B26" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="120"/>
-      <c r="E26" s="136" t="s">
+      <c r="D26" s="124"/>
+      <c r="E26" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="138" t="s">
+      <c r="F26" s="130"/>
+      <c r="G26" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="139"/>
+      <c r="H26" s="132"/>
       <c r="I26" s="60" t="s">
         <v>86</v>
       </c>
@@ -3970,18 +3950,18 @@
       <c r="B27" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="119" t="s">
+      <c r="C27" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="120"/>
-      <c r="E27" s="136" t="s">
+      <c r="D27" s="124"/>
+      <c r="E27" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="137"/>
-      <c r="G27" s="138" t="s">
+      <c r="F27" s="130"/>
+      <c r="G27" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="139"/>
+      <c r="H27" s="132"/>
       <c r="I27" s="70" t="s">
         <v>86</v>
       </c>
@@ -4000,18 +3980,18 @@
       <c r="B28" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="120"/>
-      <c r="E28" s="136" t="s">
+      <c r="D28" s="124"/>
+      <c r="E28" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="137"/>
-      <c r="G28" s="138" t="s">
+      <c r="F28" s="130"/>
+      <c r="G28" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="139"/>
+      <c r="H28" s="132"/>
       <c r="I28" s="70" t="s">
         <v>86</v>
       </c>
@@ -4030,18 +4010,18 @@
       <c r="B29" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="C29" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="120"/>
-      <c r="E29" s="136" t="s">
+      <c r="D29" s="124"/>
+      <c r="E29" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="137"/>
-      <c r="G29" s="138" t="s">
+      <c r="F29" s="130"/>
+      <c r="G29" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="139"/>
+      <c r="H29" s="132"/>
       <c r="I29" s="70" t="s">
         <v>128</v>
       </c>
@@ -4060,18 +4040,18 @@
       <c r="B30" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="120"/>
-      <c r="E30" s="136" t="s">
+      <c r="D30" s="124"/>
+      <c r="E30" s="129" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="137"/>
-      <c r="G30" s="138" t="s">
+      <c r="F30" s="130"/>
+      <c r="G30" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="139"/>
+      <c r="H30" s="132"/>
       <c r="I30" s="58" t="s">
         <v>86</v>
       </c>
@@ -4094,14 +4074,14 @@
         <v>131</v>
       </c>
       <c r="D31" s="85"/>
-      <c r="E31" s="146" t="s">
+      <c r="E31" s="110" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148" t="s">
+      <c r="F31" s="111"/>
+      <c r="G31" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="149"/>
+      <c r="H31" s="113"/>
       <c r="I31" s="58" t="s">
         <v>86</v>
       </c>
@@ -4118,12 +4098,12 @@
     <row r="32" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="83"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
       <c r="I32" s="84"/>
       <c r="J32" s="80"/>
       <c r="K32" s="25"/>
@@ -4136,12 +4116,12 @@
     <row r="33" spans="1:21" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="82"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
       <c r="I33" s="80"/>
       <c r="J33" s="80"/>
       <c r="K33" s="25"/>
@@ -4154,12 +4134,12 @@
     <row r="34" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="82"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
       <c r="I34" s="80"/>
       <c r="J34" s="80"/>
       <c r="K34" s="25"/>
@@ -4172,12 +4152,12 @@
     <row r="35" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="82"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="80"/>
       <c r="J35" s="80"/>
       <c r="K35" s="25"/>
@@ -4317,17 +4297,44 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E23:F23"/>
@@ -4344,44 +4351,17 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:J35" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4404,8 +4384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4512,10 +4492,10 @@
       <c r="A15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="159" t="s">
+      <c r="B15" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="159"/>
+      <c r="C15" s="151"/>
       <c r="D15" s="39"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -4874,29 +4854,29 @@
       <c r="T34" s="42"/>
     </row>
     <row r="35" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="92" t="s">
+      <c r="C35" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="92" t="s">
+      <c r="E35" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="94" t="s">
+      <c r="F35" s="44"/>
+      <c r="G35" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="94" t="s">
+      <c r="H35" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="95"/>
+      <c r="I35" s="46"/>
       <c r="Q35" s="42"/>
       <c r="R35" s="42"/>
       <c r="S35" s="42"/>
@@ -4940,12 +4920,12 @@
     </row>
     <row r="40" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="82"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="160"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="153"/>
       <c r="H40" s="78"/>
       <c r="I40" s="79"/>
       <c r="J40" s="77"/>
@@ -4956,12 +4936,12 @@
     </row>
     <row r="41" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="82"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="157"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
       <c r="H41" s="79"/>
       <c r="I41" s="79"/>
       <c r="J41" s="77"/>
@@ -4972,12 +4952,12 @@
     </row>
     <row r="42" spans="1:20" s="41" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="82"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
       <c r="H42" s="79"/>
       <c r="I42" s="79"/>
       <c r="J42" s="77"/>
@@ -4988,12 +4968,12 @@
     </row>
     <row r="43" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="82"/>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="157"/>
-      <c r="E43" s="157"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
       <c r="H43" s="79"/>
       <c r="I43" s="79"/>
       <c r="J43" s="77"/>
@@ -5004,12 +4984,12 @@
     </row>
     <row r="44" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="82"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
       <c r="H44" s="80"/>
       <c r="I44" s="80"/>
       <c r="Q44" s="42"/>
@@ -5019,12 +4999,12 @@
     </row>
     <row r="45" spans="1:20" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="82"/>
-      <c r="B45" s="143"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="154"/>
-      <c r="G45" s="154"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
       <c r="H45" s="80"/>
       <c r="I45" s="80"/>
       <c r="J45" s="74"/>
@@ -5039,44 +5019,56 @@
       <c r="T45" s="42"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="96"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="99"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="91"/>
+      <c r="N46" s="91"/>
+      <c r="O46" s="94"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="96"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="99"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="94"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="97"/>
+      <c r="A48" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
@@ -5084,18 +5076,6 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H40:H45" xr:uid="{607CE71B-1C65-4C58-B190-5DA7971D07B3}">
@@ -5140,21 +5120,21 @@
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104"/>
-      <c r="B2" s="161" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="163"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="164"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -5191,7 +5171,7 @@
       <c r="E6" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5208,7 +5188,7 @@
       <c r="E7" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5225,7 +5205,7 @@
       <c r="E8" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5242,7 +5222,7 @@
       <c r="E9" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5259,7 +5239,7 @@
       <c r="E10" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5276,7 +5256,7 @@
       <c r="E11" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5293,7 +5273,7 @@
       <c r="E12" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="100" t="s">
+      <c r="F12" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5310,7 +5290,7 @@
       <c r="E13" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5327,7 +5307,7 @@
       <c r="E14" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5344,7 +5324,7 @@
       <c r="E15" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5361,7 +5341,7 @@
       <c r="E16" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="100" t="s">
+      <c r="F16" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5378,7 +5358,7 @@
       <c r="E17" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="95" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5395,19 +5375,19 @@
       <c r="E18" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="95" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="101"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="101"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -5421,62 +5401,62 @@
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="168" t="s">
+      <c r="B22" s="163" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="169" t="s">
+      <c r="D22" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="168"/>
+      <c r="B23" s="163"/>
       <c r="C23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="169" t="s">
+      <c r="D23" s="164" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="103"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="98"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="103"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="98"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="103"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="103"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="98"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
+      <c r="C29" s="162"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="162"/>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">

--- a/documentacao/Planilhas/Teste_Homologação.xlsx
+++ b/documentacao/Planilhas/Teste_Homologação.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\OneDrive\Área de Trabalho\PI\TechHumi\documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40F6E61-3DC5-49FD-8666-C0804E7CC615}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9414CCFF-FFEA-427C-9B2C-FE0354A39A8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="190">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -247,18 +247,9 @@
     <t>Painel de monitoramento com gráficos e indicadores de temperatura e umidade</t>
   </si>
   <si>
-    <t>Consistir o campo "Senha" com dados válidos</t>
-  </si>
-  <si>
-    <t>Permitir a digitação da senha com dados válidos para autenticar usuário no sistema.</t>
-  </si>
-  <si>
     <t>Validar campo login sem erro. Se houver erro, exibir alerta para o usuário.</t>
   </si>
   <si>
-    <t>Validar campo senha sem erro. Se houver erro, exibir alerta para o usuário.</t>
-  </si>
-  <si>
     <t>XXXX</t>
   </si>
   <si>
@@ -376,15 +367,6 @@
     <t>Vitor Leonardo, Natalia Medina, Fernanda Esteves, Adriana Elva, Gustavo Henrique e Leticia Lago</t>
   </si>
   <si>
-    <t>Login =  usuario</t>
-  </si>
-  <si>
-    <t>Login =  Usuario</t>
-  </si>
-  <si>
-    <t>Usuario =  null/em branco</t>
-  </si>
-  <si>
     <t>Testado - OK</t>
   </si>
   <si>
@@ -430,9 +412,6 @@
     <t>RF005</t>
   </si>
   <si>
-    <t>RF006</t>
-  </si>
-  <si>
     <t>Permitir que o usuário recupere a senha através do email de cadastro</t>
   </si>
   <si>
@@ -472,9 +451,6 @@
     <t>Usuário Autenticado e direcionado para a tela Usuário</t>
   </si>
   <si>
-    <t>Consistir o campo "Login" com login válido</t>
-  </si>
-  <si>
     <t>Permitir a digitação do login (login válido) para autenticar usuário no sistema.</t>
   </si>
   <si>
@@ -487,12 +463,6 @@
     <t>RF001-1</t>
   </si>
   <si>
-    <t>RF001-2</t>
-  </si>
-  <si>
-    <t>RF001-3</t>
-  </si>
-  <si>
     <t>Graficos na tela de Usuário</t>
   </si>
   <si>
@@ -505,12 +475,6 @@
     <t>Ao entrar na tela usuário, verificar se os graficos estão com os dados encontrados pelo arduino corretamente.</t>
   </si>
   <si>
-    <t>Exibir a mensagem de erro "Login e/ou senha inválidos"; voltar para campo Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permitir o login no sistema utilizandologin e senha	</t>
-  </si>
-  <si>
     <t>Login: usuario e Senha: usuario</t>
   </si>
   <si>
@@ -523,9 +487,6 @@
     <t>Ao enserir os dados validos e apertar o botão LOGIN, vamos ser direcionados para tela usuário Através dos gráficos, visualizar os dados coletados</t>
   </si>
   <si>
-    <t xml:space="preserve">Permitir o login no sistema utilizando login e senha	</t>
-  </si>
-  <si>
     <t>O Gráfico deve se encontrar na tela de usuário.</t>
   </si>
   <si>
@@ -583,9 +544,6 @@
     <t>Abrir o site http://localhost:3000/Site_usuario/Login/login.html, selecionar a opção/menu LOGIN; digitar o login do usuário no  campo Login; ir para campo Senha</t>
   </si>
   <si>
-    <t>Abrir o site http://localhost:3000/Site_usuario/Login/login.html, selecionar a opção/menu LOGIN; digitar O login do usuário no  campo Login; ir para campo Senha</t>
-  </si>
-  <si>
     <t>Abrir o site http://localhost:3000/Site_usuario/Login/login.html, selecionar a opção/menu LOGIN; digitar login do usuário no  campo Login; ir para campo Senha</t>
   </si>
   <si>
@@ -623,6 +581,51 @@
   </si>
   <si>
     <t>Duas vezes por semana</t>
+  </si>
+  <si>
+    <t>Login =  representante</t>
+  </si>
+  <si>
+    <t>Abrir o site http://localhost:3000/Site_usuario/Login/login.html, selecionar a opção/menu LOGIN; deixar login do usuário em branco no  campo Login; ir para campo Senha; apertar botão Login</t>
+  </si>
+  <si>
+    <t>Login =  branco/null</t>
+  </si>
+  <si>
+    <t>Exibir mensagem de "Preencha este campo".</t>
+  </si>
+  <si>
+    <t>Consistir o campo  "Login "  em branco</t>
+  </si>
+  <si>
+    <t>Consistir os campos "Login e senha" com dados errados</t>
+  </si>
+  <si>
+    <t>Login = errado; senha= errado</t>
+  </si>
+  <si>
+    <t>Exibir a mensagem de erro "Erro".</t>
+  </si>
+  <si>
+    <t>Consistir o campo "Login e senha" com dados válido</t>
+  </si>
+  <si>
+    <t>RF002-1</t>
+  </si>
+  <si>
+    <t>RF002-2</t>
+  </si>
+  <si>
+    <t>Permitir o login no sistema utilizando login e senha validos</t>
+  </si>
+  <si>
+    <t>RF002-3</t>
+  </si>
+  <si>
+    <t>RF004-3</t>
+  </si>
+  <si>
+    <t>Acesso a tela usuarios, login: representante e senha: representante</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1181,15 +1184,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom/>
@@ -1209,11 +1203,20 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
@@ -1225,7 +1228,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
@@ -1239,9 +1251,42 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
       </right>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
@@ -1252,16 +1297,106 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1312,7 +1447,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1547,10 +1682,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1594,35 +1725,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1679,6 +1802,131 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1687,196 +1935,163 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1982,138 +2197,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1578429</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>833681</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagem 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2E20E6-9805-411E-A6FD-50E22AA9C2C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11634107" y="5837465"/>
-          <a:ext cx="1061358" cy="711216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1224644</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>847287</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagem 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85DE5032-4839-4135-81F9-D8BD8629776B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18083893" y="5851071"/>
-          <a:ext cx="1061358" cy="711216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>543271</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1510392</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>859308</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801F49C9-AAC6-4A44-8275-82C3FE3F4474}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13211521" y="6735536"/>
-          <a:ext cx="967121" cy="791272"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>585106</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>204107</xdr:rowOff>
@@ -2138,7 +2221,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2158,146 +2241,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>585108</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1551216</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>802821</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C31660E-9304-4BC4-829C-7ABE1472A5DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13253358" y="7769678"/>
-          <a:ext cx="966108" cy="653143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219421</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1186542</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>862029</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagem 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AF5AC8-5C91-4CCF-9EBC-80B989FCC4E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18140028" y="6738257"/>
-          <a:ext cx="967121" cy="791272"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1143001</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>802822</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagem 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60BEDF59-8921-4D25-956A-6BB79FA358A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18097500" y="7769679"/>
-          <a:ext cx="966108" cy="653143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2339,13 +2290,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2386,365 +2337,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>230275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1716763</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1093107</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagem 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACCE1674-7C6B-40B3-842B-90EC85BC277A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13160375" y="10009275"/>
-          <a:ext cx="1224638" cy="862832"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>244930</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>168335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1211036</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1024063</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Imagem 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C811BF0B-B666-4C95-BB86-905CE255DDDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18165537" y="9121835"/>
-          <a:ext cx="966106" cy="855728"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>62840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1526081</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>691260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagem 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64AF13CF-B71D-4179-96DD-9CE5D44862DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13271500" y="11318215"/>
-          <a:ext cx="922831" cy="628420"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>215515</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>78922</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1240333</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>779967</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagem 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C320F4EB-648C-4947-8883-E57B1712A65B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18160615" y="11356522"/>
-          <a:ext cx="1024818" cy="701045"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>384941</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1564817</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>990045</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagem 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF45362-A945-4097-826C-1DEE3405E735}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13053191" y="12366625"/>
-          <a:ext cx="1179876" cy="831295"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>183698</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>194015</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1123612</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>856242</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagem 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466D0591-869D-4EF6-8CC2-3AD41CCD0AB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18106573" y="12401890"/>
-          <a:ext cx="939914" cy="662227"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1839047</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1038049</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagem 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37743642-F046-48CC-82C8-CDF74B20F474}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13062857" y="12504965"/>
-          <a:ext cx="1444440" cy="983620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>385416</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1145082</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>942797</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Imagem 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5E112C7-B6EE-4865-88CE-501479181DA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18247178" y="12835952"/>
-          <a:ext cx="818511" cy="557381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>367393</xdr:colOff>
+      <xdr:colOff>399143</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>254803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1728869</xdr:colOff>
+      <xdr:colOff>1760619</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>869227</xdr:rowOff>
     </xdr:to>
@@ -2762,14 +2361,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13035643" y="13807517"/>
+          <a:off x="13527768" y="15145553"/>
           <a:ext cx="1361476" cy="614424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2782,15 +2381,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>258536</xdr:colOff>
+      <xdr:colOff>496661</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>265339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1224644</xdr:colOff>
+      <xdr:colOff>1462769</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>775607</xdr:rowOff>
+      <xdr:rowOff>918482</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2806,14 +2405,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18179143" y="4884964"/>
+          <a:off x="18879911" y="5027839"/>
           <a:ext cx="966108" cy="653143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2826,15 +2425,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>515457</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
+      <xdr:rowOff>136648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1646464</xdr:colOff>
+      <xdr:colOff>1455964</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>1039022</xdr:rowOff>
+      <xdr:rowOff>927897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2850,15 +2449,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13183707" y="14722927"/>
-          <a:ext cx="1131007" cy="1011809"/>
+          <a:off x="13700125" y="16313273"/>
+          <a:ext cx="884464" cy="791249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2870,15 +2469,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>220138</xdr:colOff>
+      <xdr:colOff>172513</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:rowOff>106590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1199043</xdr:colOff>
+      <xdr:colOff>1151418</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>998202</xdr:rowOff>
+      <xdr:rowOff>982327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2894,14 +2493,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18140745" y="14818179"/>
+          <a:off x="18555763" y="16092715"/>
           <a:ext cx="978905" cy="875737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2914,22 +2513,528 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>265980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1558042</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1142273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFDFD236-2F9C-4859-8A6E-D6A1EBDE757F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13620750" y="6330230"/>
+          <a:ext cx="1065917" cy="876293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>307255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1456442</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1183548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Imagem 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF95935C-617E-4A64-A2C4-5AA0D0E4D4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18773775" y="6371505"/>
+          <a:ext cx="1065917" cy="876293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>315163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1472351</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1050256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE21EAD-6077-4019-9C66-D689F2365806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13668375" y="7903413"/>
+          <a:ext cx="932601" cy="735093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>245313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1402501</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>980406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagem 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A053DC21-2F43-49CE-94A0-0327C6461D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18853150" y="7833563"/>
+          <a:ext cx="932601" cy="735093"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537483</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>292553</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="966108" cy="653143"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagem 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F56FF8D-55F5-4D52-9F28-67F49CADECFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13666108" y="9214303"/>
+          <a:ext cx="966108" cy="653143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510268</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>213179</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="966108" cy="653143"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagem 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF569E04-A916-462E-9A7A-89CA05EC29F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18893518" y="9134929"/>
+          <a:ext cx="966108" cy="653143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 2" descr="blob:https://web.whatsapp.com/f56fa3aa-621c-4662-8fab-1c8fec6aa8fb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9533DB7-8760-419F-8ECF-FF9D62E2C792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13128625" y="11398250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="AutoShape 3" descr="blob:https://web.whatsapp.com/f56fa3aa-621c-4662-8fab-1c8fec6aa8fb">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FAA1AC-D1F7-426F-92E0-0D408447A645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13128625" y="11398250"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
+    <xdr:ext cx="1131007" cy="1011809"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagem 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E50DFCEF-9C09-4C95-A10E-FA37057B9156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13528675" y="18310225"/>
+          <a:ext cx="1131007" cy="1011809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1131007" cy="1011809"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagem 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76AEF93-AAFE-4371-9BE6-09F4392DE519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18516600" y="18310225"/>
+          <a:ext cx="1131007" cy="1011809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>286521</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1531057</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1049909</xdr:rowOff>
+      <xdr:colOff>1925147</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1005768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Imagem 26">
+        <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B55E9EF-4CAB-4C39-BE7F-FE752CA01394}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED9C6EE1-4DE1-4AAF-A4AE-C94C7EEB69E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13415146" y="13017500"/>
+          <a:ext cx="1638626" cy="862893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>169717</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>269875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1283795</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>856543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagem 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A5E298-23DF-418C-98D0-093E431641F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18552967" y="13144500"/>
+          <a:ext cx="1114078" cy="586668"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285797</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2063088</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1275951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF44C99-F6F4-4D9D-B1F5-914D2464111C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,8 +3050,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13068300" y="16725900"/>
-          <a:ext cx="1131007" cy="1011809"/>
+          <a:off x="13414422" y="11604624"/>
+          <a:ext cx="1777291" cy="1069577"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2958,22 +3063,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>152447</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1264357</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1049909</xdr:rowOff>
+      <xdr:colOff>1929738</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1285476</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Imagem 27">
+        <xdr:cNvPr id="47" name="Imagem 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E03C59-A498-431C-9655-ADE1D87D5B6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB99AA4-2775-4299-9320-B4582995360B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,8 +3094,184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18078450" y="16725900"/>
-          <a:ext cx="1131007" cy="1011809"/>
+          <a:off x="18535697" y="11614149"/>
+          <a:ext cx="1777291" cy="1069577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123872</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1901163</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1098151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Imagem 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7640CDE0-698C-4B9E-A024-F007F13870A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18507122" y="13966824"/>
+          <a:ext cx="1777291" cy="1069577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>120697</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1897988</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1110851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagem 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36732BD0-B125-42C4-932B-914D905A6DFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13249322" y="13979524"/>
+          <a:ext cx="1777291" cy="1069577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>169046</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1807672</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>935918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Imagem 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A658B7-95EA-48D8-B512-058596D25FAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18552296" y="10328275"/>
+          <a:ext cx="1638626" cy="862893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210321</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1848947</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>993068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagem 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F2591C-0C5F-4A3A-B8C0-05B56E300F22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13338946" y="10385425"/>
+          <a:ext cx="1638626" cy="862893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3325,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3366,13 +3647,13 @@
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="138"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
@@ -3382,11 +3663,11 @@
     </row>
     <row r="3" spans="1:20" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
@@ -3413,10 +3694,10 @@
       <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="143"/>
+      <c r="C5" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="112"/>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
       <c r="G5" s="26"/>
@@ -3431,10 +3712,10 @@
       <c r="B6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="143"/>
+      <c r="C6" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="112"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
@@ -3449,10 +3730,10 @@
       <c r="B7" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="143"/>
+      <c r="C7" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="112"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="26"/>
@@ -3467,10 +3748,10 @@
       <c r="B8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="143"/>
+      <c r="C8" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="112"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="26"/>
@@ -3480,24 +3761,24 @@
       <c r="K8" s="26"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:20" s="104" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101"/>
-      <c r="B9" s="100" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="144">
+    <row r="9" spans="1:20" s="101" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="98"/>
+      <c r="B9" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="116">
         <v>43619</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="101"/>
-      <c r="P9" s="105"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="98"/>
+      <c r="P9" s="102"/>
     </row>
     <row r="10" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22"/>
@@ -3515,16 +3796,16 @@
     </row>
     <row r="11" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="148"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="121"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="22"/>
@@ -3536,14 +3817,14 @@
       <c r="B12" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="117" t="s">
+      <c r="C12" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="117" t="s">
+      <c r="D12" s="123"/>
+      <c r="E12" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="118"/>
+      <c r="F12" s="123"/>
       <c r="G12" s="65" t="s">
         <v>21</v>
       </c>
@@ -3566,22 +3847,22 @@
       <c r="B13" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="123" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="126"/>
+      <c r="F13" s="115"/>
       <c r="G13" s="58" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H13" s="68">
         <v>43613</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -3596,22 +3877,22 @@
       <c r="B14" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="150"/>
-      <c r="E14" s="149" t="s">
+      <c r="D14" s="125"/>
+      <c r="E14" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="150"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="67" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H14" s="69">
         <v>43613</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
@@ -3626,22 +3907,22 @@
       <c r="B15" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="123" t="s">
+      <c r="D15" s="115"/>
+      <c r="E15" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="133"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H15" s="68">
         <v>43613</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
@@ -3656,22 +3937,22 @@
       <c r="B16" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="123" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="124"/>
+      <c r="C16" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="114"/>
+      <c r="E16" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="114"/>
       <c r="G16" s="58" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H16" s="68">
         <v>43613</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
@@ -3684,24 +3965,24 @@
     <row r="17" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="123" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="124"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="113" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="114"/>
       <c r="G17" s="58" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H17" s="68">
         <v>43613</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J17" s="56"/>
       <c r="K17" s="56"/>
@@ -3714,24 +3995,24 @@
     <row r="18" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="123" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="124"/>
+        <v>94</v>
+      </c>
+      <c r="C18" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="114"/>
+      <c r="E18" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="114"/>
       <c r="G18" s="58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H18" s="68">
         <v>43613</v>
       </c>
       <c r="I18" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
@@ -3744,24 +4025,24 @@
     <row r="19" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="123" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="114"/>
+      <c r="E19" s="134" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="135"/>
+      <c r="G19" s="58" t="s">
         <v>102</v>
-      </c>
-      <c r="F19" s="120"/>
-      <c r="G19" s="58" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="68">
         <v>43613</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
@@ -3774,12 +4055,12 @@
     <row r="20" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="57"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="133"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="118"/>
       <c r="G20" s="58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
@@ -3811,17 +4092,17 @@
     </row>
     <row r="22" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
@@ -3830,18 +4111,18 @@
       <c r="B23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="121" t="s">
+      <c r="D23" s="127"/>
+      <c r="E23" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="122"/>
-      <c r="G23" s="121" t="s">
+      <c r="F23" s="127"/>
+      <c r="G23" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="122"/>
+      <c r="H23" s="127"/>
       <c r="I23" s="64" t="s">
         <v>23</v>
       </c>
@@ -3858,25 +4139,25 @@
     <row r="24" spans="1:21" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="126"/>
-      <c r="G24" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="126"/>
+        <v>110</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="115"/>
+      <c r="E24" s="113" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="115"/>
+      <c r="G24" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="115"/>
       <c r="I24" s="59" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
@@ -3888,25 +4169,25 @@
     <row r="25" spans="1:21" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="123" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="129" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="130"/>
-      <c r="G25" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="132"/>
+        <v>111</v>
+      </c>
+      <c r="C25" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="114"/>
+      <c r="E25" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="131"/>
+      <c r="G25" s="132" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="133"/>
       <c r="I25" s="60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -3918,25 +4199,25 @@
     <row r="26" spans="1:21" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="123" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="124"/>
-      <c r="E26" s="129" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="130"/>
-      <c r="G26" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="132"/>
-      <c r="I26" s="60" t="s">
-        <v>86</v>
+        <v>112</v>
+      </c>
+      <c r="C26" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="114"/>
+      <c r="E26" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="131"/>
+      <c r="G26" s="132" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="133"/>
+      <c r="I26" s="70" t="s">
+        <v>83</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -3948,25 +4229,25 @@
     <row r="27" spans="1:21" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="123" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="129" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="130"/>
-      <c r="G27" s="131" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="132"/>
+        <v>113</v>
+      </c>
+      <c r="C27" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="114"/>
+      <c r="E27" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="131"/>
+      <c r="G27" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="133"/>
       <c r="I27" s="70" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J27" s="58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -3978,25 +4259,25 @@
     <row r="28" spans="1:21" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="123" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="129" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="130"/>
-      <c r="G28" s="131" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="132"/>
+        <v>117</v>
+      </c>
+      <c r="C28" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="114"/>
+      <c r="E28" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="131"/>
+      <c r="G28" s="132" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="133"/>
       <c r="I28" s="70" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="J28" s="58" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -4007,26 +4288,26 @@
     </row>
     <row r="29" spans="1:21" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
-      <c r="B29" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="123" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="129" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="130"/>
-      <c r="G29" s="131" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="132"/>
-      <c r="I29" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="J29" s="58" t="s">
-        <v>134</v>
+      <c r="B29" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="114"/>
+      <c r="E29" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="131"/>
+      <c r="G29" s="132" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="133"/>
+      <c r="I29" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="80" t="s">
+        <v>103</v>
       </c>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -4036,29 +4317,29 @@
       <c r="U29" s="5"/>
     </row>
     <row r="30" spans="1:21" s="4" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="123" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="129" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="130"/>
-      <c r="G30" s="131" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="132"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="168" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="167"/>
+      <c r="E30" s="165" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="166"/>
+      <c r="G30" s="164" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="163"/>
       <c r="I30" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="81" t="s">
-        <v>109</v>
-      </c>
-      <c r="K30" s="25"/>
+        <v>83</v>
+      </c>
+      <c r="J30" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="162"/>
       <c r="L30" s="25"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -4067,27 +4348,15 @@
     </row>
     <row r="31" spans="1:21" s="4" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
-      <c r="B31" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="110" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="111"/>
-      <c r="G31" s="112" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="113"/>
-      <c r="I31" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" s="58" t="s">
-        <v>109</v>
-      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="82"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
       <c r="R31" s="5"/>
@@ -4097,15 +4366,15 @@
     </row>
     <row r="32" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="80"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="79"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="R32" s="5"/>
@@ -4115,15 +4384,15 @@
     </row>
     <row r="33" spans="1:21" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
       <c r="R33" s="5"/>
@@ -4133,15 +4402,15 @@
     </row>
     <row r="34" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
       <c r="R34" s="5"/>
@@ -4151,15 +4420,15 @@
     </row>
     <row r="35" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="R35" s="5"/>
@@ -4199,7 +4468,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="27"/>
@@ -4296,7 +4565,55 @@
       <c r="L44" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="64">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B22:J22"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="C5:D5"/>
@@ -4313,55 +4630,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:J35" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4382,22 +4650,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:I35"/>
+    <sheetView topLeftCell="A29" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.85546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="31" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" style="31" customWidth="1"/>
     <col min="6" max="6" width="32.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" style="31" customWidth="1"/>
-    <col min="8" max="9" width="20.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="31" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="31" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" style="31" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" style="31" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" style="31" customWidth="1"/>
@@ -4413,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -4429,7 +4698,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4461,12 +4730,12 @@
         <v>34</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>33</v>
@@ -4474,7 +4743,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>32</v>
@@ -4492,10 +4761,10 @@
       <c r="A15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="151" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="151"/>
+      <c r="B15" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="146"/>
       <c r="D15" s="39"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -4553,19 +4822,19 @@
     </row>
     <row r="25" spans="1:20" s="41" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="45" t="s">
@@ -4582,21 +4851,21 @@
       <c r="S25" s="42"/>
       <c r="T25" s="42"/>
     </row>
-    <row r="26" spans="1:20" s="41" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="45" t="s">
@@ -4615,19 +4884,19 @@
     </row>
     <row r="27" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="45" t="s">
@@ -4644,21 +4913,21 @@
       <c r="S27" s="42"/>
       <c r="T27" s="42"/>
     </row>
-    <row r="28" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="45" t="s">
@@ -4675,21 +4944,21 @@
       <c r="S28" s="42"/>
       <c r="T28" s="42"/>
     </row>
-    <row r="29" spans="1:20" s="41" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="45" t="s">
@@ -4706,21 +4975,21 @@
       <c r="S29" s="42"/>
       <c r="T29" s="42"/>
     </row>
-    <row r="30" spans="1:20" s="41" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="41" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="45" t="s">
@@ -4735,21 +5004,21 @@
       <c r="S30" s="42"/>
       <c r="T30" s="42"/>
     </row>
-    <row r="31" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="41" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B31" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="43" t="s">
         <v>145</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>158</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="45" t="s">
@@ -4764,21 +5033,21 @@
       <c r="S31" s="42"/>
       <c r="T31" s="42"/>
     </row>
-    <row r="32" spans="1:20" s="41" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="B32" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="43" t="s">
-        <v>159</v>
-      </c>
       <c r="D32" s="43" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="45" t="s">
@@ -4793,21 +5062,21 @@
       <c r="S32" s="42"/>
       <c r="T32" s="42"/>
     </row>
-    <row r="33" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="41" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="45" t="s">
@@ -4825,29 +5094,29 @@
       <c r="T33" s="42"/>
     </row>
     <row r="34" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="87" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="87" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="88"/>
-      <c r="G34" s="89" t="s">
+      <c r="A34" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="85"/>
+      <c r="G34" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="89" t="s">
+      <c r="H34" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="90"/>
+      <c r="I34" s="87"/>
       <c r="Q34" s="42"/>
       <c r="R34" s="42"/>
       <c r="S34" s="42"/>
@@ -4855,19 +5124,19 @@
     </row>
     <row r="35" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F35" s="44"/>
       <c r="G35" s="45" t="s">
@@ -4883,205 +5152,221 @@
       <c r="T35" s="42"/>
     </row>
     <row r="36" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="76"/>
+      <c r="A36" s="170"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="181"/>
+      <c r="H36" s="181"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="182"/>
       <c r="Q36" s="42"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
     </row>
     <row r="37" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
+      <c r="A37" s="171"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="184"/>
       <c r="Q37" s="42"/>
       <c r="R37" s="42"/>
       <c r="S37" s="42"/>
       <c r="T37" s="42"/>
     </row>
-    <row r="39" spans="1:20" s="41" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-    </row>
-    <row r="40" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="82"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="77"/>
+    <row r="38" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="71"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="75"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+    </row>
+    <row r="40" spans="1:20" s="41" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q40" s="42"/>
       <c r="R40" s="42"/>
       <c r="S40" s="42"/>
       <c r="T40" s="42"/>
     </row>
     <row r="41" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="82"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="77"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="76"/>
       <c r="Q41" s="42"/>
       <c r="R41" s="42"/>
       <c r="S41" s="42"/>
       <c r="T41" s="42"/>
     </row>
-    <row r="42" spans="1:20" s="41" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="82"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="77"/>
+    <row r="42" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="81"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="76"/>
       <c r="Q42" s="42"/>
       <c r="R42" s="42"/>
       <c r="S42" s="42"/>
       <c r="T42" s="42"/>
     </row>
-    <row r="43" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="82"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="155"/>
-      <c r="G43" s="155"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="77"/>
+    <row r="43" spans="1:20" s="41" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="81"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="76"/>
       <c r="Q43" s="42"/>
       <c r="R43" s="42"/>
       <c r="S43" s="42"/>
       <c r="T43" s="42"/>
     </row>
     <row r="44" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="82"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="76"/>
       <c r="Q44" s="42"/>
       <c r="R44" s="42"/>
       <c r="S44" s="42"/>
       <c r="T44" s="42"/>
     </row>
-    <row r="45" spans="1:20" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="82"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
+    <row r="45" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="81"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
       <c r="Q45" s="42"/>
       <c r="R45" s="42"/>
       <c r="S45" s="42"/>
       <c r="T45" s="42"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="91"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="91"/>
-      <c r="N46" s="91"/>
-      <c r="O46" s="94"/>
+    <row r="46" spans="1:20" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="81"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="137"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="91"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="94"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="91"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="92"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="91"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H40:H45" xr:uid="{607CE71B-1C65-4C58-B190-5DA7971D07B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41:H46" xr:uid="{607CE71B-1C65-4C58-B190-5DA7971D07B3}">
       <formula1>"Essencial, Importante, Desejável"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I40:I45" xr:uid="{8A5FD536-7FA5-49DA-8427-6DFEB9460C02}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I41:I46" xr:uid="{8A5FD536-7FA5-49DA-8427-6DFEB9460C02}">
       <formula1>"Não testado,Testado- NÃO OK,Testado - OK"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5103,7 +5388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -5120,21 +5405,21 @@
   <sheetData>
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99"/>
-      <c r="B2" s="156" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="150"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="161"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -5163,15 +5448,15 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5180,15 +5465,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5197,15 +5482,15 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5214,15 +5499,15 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F9" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5231,15 +5516,15 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5248,15 +5533,15 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5265,15 +5550,15 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5282,15 +5567,15 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5299,15 +5584,15 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5316,15 +5601,15 @@
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5333,15 +5618,15 @@
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F16" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5350,15 +5635,15 @@
         <v>12</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="92" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5367,27 +5652,27 @@
         <v>13</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F18" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="92" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="96"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="96"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -5401,62 +5686,62 @@
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="155" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="164" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="164"/>
-      <c r="F22" s="164"/>
+      <c r="D22" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="163"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="164" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
+      <c r="D23" s="156" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="98"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="98"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="98"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="95"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="98"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
-      <c r="E29" s="162"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">

--- a/documentacao/Planilhas/Teste_Homologação.xlsx
+++ b/documentacao/Planilhas/Teste_Homologação.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\OneDrive\Área de Trabalho\PI\TechHumi\documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9414CCFF-FFEA-427C-9B2C-FE0354A39A8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3D156-BDDD-49CE-8B48-E0C48F430593}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="503" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Homologação" sheetId="5" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <t>Cadastro.js</t>
   </si>
   <si>
-    <t>Testar o login do usuário</t>
-  </si>
-  <si>
     <t>Permitir sair do campo Login sem mensagem de Erro</t>
   </si>
   <si>
@@ -626,6 +623,9 @@
   </si>
   <si>
     <t>Acesso a tela usuarios, login: representante e senha: representante</t>
+  </si>
+  <si>
+    <t>Testar os requisitos funcionais do site e a coleta de dados do arduino e do sensor DHT11</t>
   </si>
 </sst>
 </file>
@@ -1806,6 +1806,200 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1830,26 +2024,12 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1859,12 +2039,6 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1873,72 +2047,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1947,13 +2066,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1980,118 +2092,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -3647,13 +3647,13 @@
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
@@ -3663,11 +3663,11 @@
     </row>
     <row r="3" spans="1:20" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
@@ -3694,10 +3694,10 @@
       <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="112"/>
+      <c r="C5" s="162" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="163"/>
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
       <c r="G5" s="26"/>
@@ -3712,10 +3712,10 @@
       <c r="B6" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="112"/>
+      <c r="C6" s="162" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="163"/>
       <c r="E6" s="26"/>
       <c r="F6" s="27"/>
       <c r="G6" s="26"/>
@@ -3730,10 +3730,10 @@
       <c r="B7" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="112"/>
+      <c r="C7" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="163"/>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
       <c r="G7" s="26"/>
@@ -3748,10 +3748,10 @@
       <c r="B8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="112"/>
+      <c r="C8" s="162" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="163"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="26"/>
@@ -3764,12 +3764,12 @@
     <row r="9" spans="1:20" s="101" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="98"/>
       <c r="B9" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="116">
+        <v>79</v>
+      </c>
+      <c r="C9" s="164">
         <v>43619</v>
       </c>
-      <c r="D9" s="117"/>
+      <c r="D9" s="165"/>
       <c r="E9" s="99"/>
       <c r="F9" s="100"/>
       <c r="G9" s="99"/>
@@ -3796,16 +3796,16 @@
     </row>
     <row r="11" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="168"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="22"/>
@@ -3817,14 +3817,14 @@
       <c r="B12" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="122" t="s">
+      <c r="D12" s="134"/>
+      <c r="E12" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="123"/>
+      <c r="F12" s="134"/>
       <c r="G12" s="65" t="s">
         <v>21</v>
       </c>
@@ -3847,22 +3847,22 @@
       <c r="B13" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="113" t="s">
+      <c r="D13" s="142"/>
+      <c r="E13" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="115"/>
+      <c r="F13" s="142"/>
       <c r="G13" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="68">
         <v>43613</v>
       </c>
       <c r="I13" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
@@ -3877,22 +3877,22 @@
       <c r="B14" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="124" t="s">
+      <c r="D14" s="170"/>
+      <c r="E14" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="125"/>
+      <c r="F14" s="170"/>
       <c r="G14" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="69">
         <v>43613</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
@@ -3907,22 +3907,22 @@
       <c r="B15" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="113" t="s">
+      <c r="D15" s="142"/>
+      <c r="E15" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="118"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="68">
         <v>43613</v>
       </c>
       <c r="I15" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
@@ -3937,22 +3937,22 @@
       <c r="B16" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="113" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="114"/>
+      <c r="C16" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="140"/>
+      <c r="E16" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="140"/>
       <c r="G16" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="68">
         <v>43613</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
@@ -3965,24 +3965,24 @@
     <row r="17" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
       <c r="B17" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="D17" s="140"/>
+      <c r="E17" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="140"/>
+      <c r="G17" s="58" t="s">
         <v>91</v>
-      </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="113" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="114"/>
-      <c r="G17" s="58" t="s">
-        <v>92</v>
       </c>
       <c r="H17" s="68">
         <v>43613</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17" s="56"/>
       <c r="K17" s="56"/>
@@ -3995,24 +3995,24 @@
     <row r="18" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
       <c r="B18" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="D18" s="140"/>
+      <c r="E18" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="113" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="114"/>
+      <c r="F18" s="140"/>
       <c r="G18" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="68">
         <v>43613</v>
       </c>
       <c r="I18" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="56"/>
       <c r="K18" s="56"/>
@@ -4025,24 +4025,24 @@
     <row r="19" spans="1:21" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="D19" s="140"/>
+      <c r="E19" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="135"/>
+      <c r="F19" s="136"/>
       <c r="G19" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="68">
         <v>43613</v>
       </c>
       <c r="I19" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="56"/>
       <c r="K19" s="56"/>
@@ -4055,12 +4055,12 @@
     <row r="20" spans="1:21" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="57"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="118"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="153"/>
       <c r="G20" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H20" s="58"/>
       <c r="I20" s="58"/>
@@ -4092,17 +4092,17 @@
     </row>
     <row r="22" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
     </row>
@@ -4111,18 +4111,18 @@
       <c r="B23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="127"/>
-      <c r="E23" s="126" t="s">
+      <c r="D23" s="138"/>
+      <c r="E23" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="127"/>
-      <c r="G23" s="126" t="s">
+      <c r="F23" s="138"/>
+      <c r="G23" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="127"/>
+      <c r="H23" s="138"/>
       <c r="I23" s="64" t="s">
         <v>23</v>
       </c>
@@ -4139,25 +4139,25 @@
     <row r="24" spans="1:21" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
       <c r="B24" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="139" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="142"/>
+      <c r="E24" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="115"/>
-      <c r="E24" s="113" t="s">
+      <c r="F24" s="142"/>
+      <c r="G24" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="115"/>
-      <c r="G24" s="113" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="115"/>
+      <c r="H24" s="142"/>
       <c r="I24" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
@@ -4169,25 +4169,25 @@
     <row r="25" spans="1:21" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="113" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="130" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="131"/>
-      <c r="G25" s="132" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="139" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="140"/>
+      <c r="E25" s="145" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="146"/>
+      <c r="G25" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="133"/>
+      <c r="H25" s="148"/>
       <c r="I25" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -4199,25 +4199,25 @@
     <row r="26" spans="1:21" s="4" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="139" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="140"/>
+      <c r="E26" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="114"/>
-      <c r="E26" s="130" t="s">
+      <c r="F26" s="146"/>
+      <c r="G26" s="147" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="131"/>
-      <c r="G26" s="132" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="133"/>
+      <c r="H26" s="148"/>
       <c r="I26" s="70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
@@ -4229,25 +4229,25 @@
     <row r="27" spans="1:21" s="4" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="140"/>
+      <c r="E27" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="114"/>
-      <c r="E27" s="130" t="s">
+      <c r="F27" s="146"/>
+      <c r="G27" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="131"/>
-      <c r="G27" s="132" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="133"/>
+      <c r="H27" s="148"/>
       <c r="I27" s="70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J27" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -4259,25 +4259,25 @@
     <row r="28" spans="1:21" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="139" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="140"/>
+      <c r="E28" s="145" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="F28" s="146"/>
+      <c r="G28" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="130" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="131"/>
-      <c r="G28" s="132" t="s">
+      <c r="H28" s="148"/>
+      <c r="I28" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="133"/>
-      <c r="I28" s="70" t="s">
-        <v>121</v>
-      </c>
       <c r="J28" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -4288,26 +4288,26 @@
     </row>
     <row r="29" spans="1:21" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="48"/>
-      <c r="B29" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="113" t="s">
+      <c r="B29" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="140"/>
+      <c r="E29" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="130" t="s">
+      <c r="F29" s="146"/>
+      <c r="G29" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="131"/>
-      <c r="G29" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="133"/>
+      <c r="H29" s="148"/>
       <c r="I29" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29" s="80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -4317,29 +4317,29 @@
       <c r="U29" s="5"/>
     </row>
     <row r="30" spans="1:21" s="4" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="160"/>
-      <c r="B30" s="161" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="168" t="s">
+      <c r="A30" s="107"/>
+      <c r="B30" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="110"/>
+      <c r="E30" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="167"/>
-      <c r="E30" s="165" t="s">
+      <c r="F30" s="150"/>
+      <c r="G30" s="151" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="166"/>
-      <c r="G30" s="164" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="163"/>
+      <c r="H30" s="152"/>
       <c r="I30" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="K30" s="162"/>
+        <v>102</v>
+      </c>
+      <c r="K30" s="109"/>
       <c r="L30" s="25"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -4350,11 +4350,11 @@
       <c r="A31" s="48"/>
       <c r="B31" s="81"/>
       <c r="C31" s="103"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
       <c r="I31" s="104"/>
       <c r="J31" s="82"/>
       <c r="K31" s="25"/>
@@ -4367,12 +4367,12 @@
     <row r="32" spans="1:21" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="81"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
       <c r="I32" s="104"/>
       <c r="J32" s="79"/>
       <c r="K32" s="25"/>
@@ -4385,12 +4385,12 @@
     <row r="33" spans="1:21" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="81"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
       <c r="I33" s="79"/>
       <c r="J33" s="79"/>
       <c r="K33" s="25"/>
@@ -4403,12 +4403,12 @@
     <row r="34" spans="1:21" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48"/>
       <c r="B34" s="81"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
       <c r="I34" s="79"/>
       <c r="J34" s="79"/>
       <c r="K34" s="25"/>
@@ -4421,12 +4421,12 @@
     <row r="35" spans="1:21" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="48"/>
       <c r="B35" s="81"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
       <c r="I35" s="79"/>
       <c r="J35" s="79"/>
       <c r="K35" s="25"/>
@@ -4468,7 +4468,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="26"/>
       <c r="F38" s="27"/>
@@ -4566,17 +4566,43 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E23:F23"/>
@@ -4593,43 +4619,17 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:J35" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4652,8 +4652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4698,7 +4698,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4730,7 +4730,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4761,10 +4761,10 @@
       <c r="A15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="146" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="146"/>
+      <c r="B15" s="171" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="171"/>
       <c r="D15" s="39"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -4822,19 +4822,19 @@
     </row>
     <row r="25" spans="1:20" s="41" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" s="44"/>
       <c r="G25" s="45" t="s">
@@ -4853,19 +4853,19 @@
     </row>
     <row r="26" spans="1:20" s="41" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="E26" s="43" t="s">
         <v>177</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>178</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="45" t="s">
@@ -4884,19 +4884,19 @@
     </row>
     <row r="27" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="43" t="s">
+      <c r="E27" s="43" t="s">
         <v>181</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>182</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="45" t="s">
@@ -4915,19 +4915,19 @@
     </row>
     <row r="28" spans="1:20" s="41" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="45" t="s">
@@ -4946,19 +4946,19 @@
     </row>
     <row r="29" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F29"/>
       <c r="G29" s="45" t="s">
@@ -4977,19 +4977,19 @@
     </row>
     <row r="30" spans="1:20" s="41" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="45" t="s">
@@ -5006,19 +5006,19 @@
     </row>
     <row r="31" spans="1:20" s="41" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="45" t="s">
@@ -5035,19 +5035,19 @@
     </row>
     <row r="32" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="45" t="s">
@@ -5064,19 +5064,19 @@
     </row>
     <row r="33" spans="1:20" s="41" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="43" t="s">
         <v>147</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>148</v>
       </c>
       <c r="F33" s="44"/>
       <c r="G33" s="45" t="s">
@@ -5095,19 +5095,19 @@
     </row>
     <row r="34" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="D34" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="E34" s="84" t="s">
         <v>155</v>
-      </c>
-      <c r="E34" s="84" t="s">
-        <v>156</v>
       </c>
       <c r="F34" s="85"/>
       <c r="G34" s="86" t="s">
@@ -5124,19 +5124,19 @@
     </row>
     <row r="35" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" s="44"/>
       <c r="G35" s="45" t="s">
@@ -5152,31 +5152,31 @@
       <c r="T35" s="42"/>
     </row>
     <row r="36" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="170"/>
-      <c r="B36" s="174"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="181"/>
-      <c r="H36" s="181"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="182"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="124"/>
       <c r="Q36" s="42"/>
       <c r="R36" s="42"/>
       <c r="S36" s="42"/>
       <c r="T36" s="42"/>
     </row>
     <row r="37" spans="1:20" s="41" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="171"/>
-      <c r="B37" s="173"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="72"/>
-      <c r="D37" s="172"/>
+      <c r="D37" s="114"/>
       <c r="E37" s="72"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="184"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="126"/>
       <c r="Q37" s="42"/>
       <c r="R37" s="42"/>
       <c r="S37" s="42"/>
@@ -5205,12 +5205,12 @@
     </row>
     <row r="41" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="81"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="147"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="173"/>
       <c r="H41" s="77"/>
       <c r="I41" s="78"/>
       <c r="J41" s="76"/>
@@ -5221,12 +5221,12 @@
     </row>
     <row r="42" spans="1:20" s="41" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="81"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="174"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
       <c r="H42" s="78"/>
       <c r="I42" s="78"/>
       <c r="J42" s="76"/>
@@ -5237,12 +5237,12 @@
     </row>
     <row r="43" spans="1:20" s="41" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="81"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
+      <c r="D43" s="174"/>
+      <c r="E43" s="174"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
       <c r="H43" s="78"/>
       <c r="I43" s="78"/>
       <c r="J43" s="76"/>
@@ -5253,12 +5253,12 @@
     </row>
     <row r="44" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="81"/>
-      <c r="B44" s="143"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="145"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="174"/>
+      <c r="E44" s="174"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
       <c r="H44" s="78"/>
       <c r="I44" s="78"/>
       <c r="J44" s="76"/>
@@ -5269,12 +5269,12 @@
     </row>
     <row r="45" spans="1:20" s="41" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="81"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
       <c r="H45" s="79"/>
       <c r="I45" s="79"/>
       <c r="Q45" s="42"/>
@@ -5284,12 +5284,12 @@
     </row>
     <row r="46" spans="1:20" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="81"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
       <c r="H46" s="79"/>
       <c r="I46" s="79"/>
       <c r="J46" s="73"/>
@@ -5342,6 +5342,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
@@ -5349,18 +5361,6 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H41:H46" xr:uid="{607CE71B-1C65-4C58-B190-5DA7971D07B3}">
@@ -5388,7 +5388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -5406,20 +5406,20 @@
     <row r="1" spans="1:6" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="96"/>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="150"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="178"/>
     </row>
     <row r="3" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="151"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
@@ -5448,13 +5448,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="92" t="s">
         <v>28</v>
@@ -5465,13 +5465,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" s="92" t="s">
         <v>28</v>
@@ -5482,13 +5482,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F8" s="92" t="s">
         <v>28</v>
@@ -5499,13 +5499,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" s="92" t="s">
         <v>28</v>
@@ -5516,13 +5516,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>74</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F10" s="92" t="s">
         <v>28</v>
@@ -5533,13 +5533,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="92" t="s">
         <v>28</v>
@@ -5550,13 +5550,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F12" s="92" t="s">
         <v>28</v>
@@ -5567,13 +5567,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" s="92" t="s">
         <v>28</v>
@@ -5584,13 +5584,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" s="92" t="s">
         <v>28</v>
@@ -5601,13 +5601,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15" s="92" t="s">
         <v>28</v>
@@ -5618,13 +5618,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="92" t="s">
         <v>28</v>
@@ -5635,13 +5635,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="E17" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="92" t="s">
         <v>28</v>
@@ -5652,13 +5652,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>79</v>
-      </c>
       <c r="E18" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" s="92" t="s">
         <v>28</v>
@@ -5686,28 +5686,28 @@
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="155" t="s">
+      <c r="B22" s="183" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
+      <c r="D22" s="184" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="155"/>
+      <c r="B23" s="183"/>
       <c r="C23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="156" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
+      <c r="D23" s="184" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="93"/>
@@ -5739,9 +5739,9 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
       <c r="F29" s="15"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
